--- a/backend/upload/csv/schedule.xlsx
+++ b/backend/upload/csv/schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="158">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="159">
   <x:si>
     <x:t>조준서</x:t>
   </x:si>
@@ -85,10 +85,6 @@
     <x:t>림프종 수술</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">심장 수술 메인 화면
-</x:t>
-  </x:si>
-  <x:si>
     <x:t>한라나</x:t>
   </x:si>
   <x:si>
@@ -332,6 +328,9 @@
     <x:t>anesthesiologist</x:t>
   </x:si>
   <x:si>
+    <x:t>2022-01-12 12:00:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>lymphoma surgery</x:t>
   </x:si>
   <x:si>
@@ -447,6 +446,9 @@
   </x:si>
   <x:si>
     <x:t>다리 수술 메인 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심장 수술 메인 화면</x:t>
   </x:si>
   <x:si>
     <x:t>kidney cancer surgery process</x:t>
@@ -546,11 +548,6 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffd9d9d9"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
         <x:fgColor rgb="ff289b6e"/>
       </x:patternFill>
     </x:fill>
@@ -559,8 +556,13 @@
         <x:fgColor rgb="ffff0000"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffd9d9d9"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="13">
+  <x:borders count="14">
     <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
         <x:color indexed="64"/>
@@ -752,7 +754,7 @@
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
+      <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
@@ -769,13 +771,30 @@
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
         <x:color indexed="64"/>
       </x:bottom>
       <x:diagonal>
@@ -845,7 +864,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="22">
+  <x:cellXfs count="23">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -860,13 +879,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-      <x:protection hidden="1"/>
     </x:xf>
     <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
@@ -889,110 +901,121 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+      <x:protection hidden="1"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+      <x:protection hidden="1"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="6">
@@ -1663,18 +1686,18 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:AK149"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E11" activeCellId="0" sqref="E11:E11"/>
+    <x:sheetView tabSelected="1" topLeftCell="N1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="U103" activeCellId="0" sqref="U103:U103"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="18" customWidth="1"/>
     <x:col min="2" max="2" width="5.4453125" customWidth="1"/>
-    <x:col min="3" max="3" width="17.109375" customWidth="1"/>
+    <x:col min="3" max="3" width="18.22265625" customWidth="1"/>
     <x:col min="4" max="4" width="13.77734375" customWidth="1"/>
     <x:col min="5" max="5" width="15" customWidth="1"/>
-    <x:col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <x:col min="6" max="6" width="17.77734375" customWidth="1"/>
     <x:col min="7" max="7" width="14.4453125" customWidth="1"/>
     <x:col min="8" max="8" width="57" customWidth="1"/>
     <x:col min="9" max="9" width="18.33203125" customWidth="1"/>
@@ -1702,105 +1725,105 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="20" t="s">
+      <x:c r="A1" s="17" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="B1" s="20"/>
-      <x:c r="C1" s="20"/>
-      <x:c r="D1" s="20"/>
-      <x:c r="E1" s="20"/>
-      <x:c r="F1" s="20"/>
-      <x:c r="G1" s="20"/>
-      <x:c r="H1" s="20"/>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
     </x:row>
     <x:row r="2" spans="1:37" ht="13.949999999999999">
-      <x:c r="A2" s="16" t="s">
+      <x:c r="A2" s="14" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="B2" s="17"/>
-      <x:c r="C2" s="18"/>
-      <x:c r="D2" s="19"/>
-      <x:c r="E2" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F2" s="14"/>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="13" t="s">
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="19"/>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F2" s="12"/>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="13"/>
+      <x:c r="I2" s="11" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="J2" s="14"/>
-      <x:c r="K2" s="14"/>
-      <x:c r="L2" s="15"/>
-      <x:c r="M2" s="13" t="s">
+      <x:c r="J2" s="12"/>
+      <x:c r="K2" s="12"/>
+      <x:c r="L2" s="13"/>
+      <x:c r="M2" s="11" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="N2" s="14"/>
-      <x:c r="O2" s="15"/>
-      <x:c r="P2" s="13" t="s">
+      <x:c r="N2" s="12"/>
+      <x:c r="O2" s="13"/>
+      <x:c r="P2" s="11" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="Q2" s="14"/>
-      <x:c r="R2" s="15"/>
-      <x:c r="S2" s="13" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="T2" s="14"/>
-      <x:c r="U2" s="14"/>
-      <x:c r="V2" s="15"/>
-      <x:c r="W2" s="13" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="X2" s="14"/>
-      <x:c r="Y2" s="14"/>
-      <x:c r="Z2" s="14"/>
-      <x:c r="AA2" s="14"/>
-      <x:c r="AB2" s="14"/>
-      <x:c r="AC2" s="15"/>
-      <x:c r="AD2" s="13" t="s">
+      <x:c r="Q2" s="12"/>
+      <x:c r="R2" s="13"/>
+      <x:c r="S2" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T2" s="12"/>
+      <x:c r="U2" s="12"/>
+      <x:c r="V2" s="13"/>
+      <x:c r="W2" s="11" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="AE2" s="14"/>
-      <x:c r="AF2" s="15"/>
-      <x:c r="AG2" s="13" t="s">
+      <x:c r="X2" s="12"/>
+      <x:c r="Y2" s="12"/>
+      <x:c r="Z2" s="12"/>
+      <x:c r="AA2" s="12"/>
+      <x:c r="AB2" s="12"/>
+      <x:c r="AC2" s="13"/>
+      <x:c r="AD2" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="AE2" s="12"/>
+      <x:c r="AF2" s="13"/>
+      <x:c r="AG2" s="11" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="AH2" s="14"/>
-      <x:c r="AI2" s="15"/>
-      <x:c r="AJ2" s="13" t="s">
+      <x:c r="AH2" s="12"/>
+      <x:c r="AI2" s="13"/>
+      <x:c r="AJ2" s="11" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="AK2" s="15"/>
+      <x:c r="AK2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:37" ht="13.949999999999999">
       <x:c r="A3" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B3" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D3" s="3" t="s">
+      <x:c r="D3" s="20" t="s">
         <x:v>131</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="G3" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H3" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="J3" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J3" s="8" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="K3" s="4" t="s">
@@ -1810,7 +1833,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="N3" s="4" t="s">
         <x:v>126</x:v>
@@ -1822,15 +1845,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="Q3" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="R3" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="S3" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="S3" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="T3" s="10" t="s">
+      <x:c r="T3" s="8" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="U3" s="4" t="s">
@@ -1840,13 +1863,13 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="W3" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="X3" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="Y3" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="Z3" s="4" t="s">
         <x:v>125</x:v>
@@ -1858,42 +1881,42 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="AC3" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="AD3" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="AE3" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="AF3" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="AG3" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="AH3" s="9" t="s">
+      <x:c r="AH3" s="7" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="AI3" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="AJ3" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="AK3" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:37">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:37" ht="13.949999999999999">
       <x:c r="A4" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="B4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C4" s="6">
-        <x:v>44573.68472222222</x:v>
+      <x:c r="C4" s="21" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D4" t="s">
         <x:v>18</x:v>
@@ -1901,14 +1924,14 @@
       <x:c r="E4" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="F4" s="5">
-        <x:v>44206.375</x:v>
+      <x:c r="F4" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H4" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I4" t="s">
         <x:v>106</x:v>
@@ -1916,8 +1939,8 @@
       <x:c r="J4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K4" s="5">
-        <x:v>44573.68472222222</x:v>
+      <x:c r="K4" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L4" t="s">
         <x:v>18</x:v>
@@ -1925,38 +1948,38 @@
       <x:c r="M4" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="N4" s="5">
-        <x:v>44573.68472222222</x:v>
+      <x:c r="N4" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="O4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P4" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q4" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R4" t="s">
         <x:v>115</x:v>
       </x:c>
       <x:c r="S4" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="U4" s="5">
-        <x:v>44573.68472222222</x:v>
+      <x:c r="U4" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="W4" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="X4" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Y4">
         <x:v>20</x:v>
@@ -1965,16 +1988,16 @@
         <x:v>37257</x:v>
       </x:c>
       <x:c r="AA4" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="AB4" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="AC4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AD4" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="AE4" t="s">
         <x:v>10</x:v>
@@ -1983,7 +2006,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AG4" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="AH4">
         <x:v>1</x:v>
@@ -1992,7 +2015,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AJ4" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="AK4">
         <x:v>1</x:v>
@@ -2005,32 +2028,32 @@
       <x:c r="B5">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C5" s="6">
-        <x:v>44573.39166666667</x:v>
+      <x:c r="C5" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D5" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F5" s="5">
-        <x:v>44206.458333333336</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F5" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G5">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H5" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I5" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="I5" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="J5">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="K5" s="5">
-        <x:v>44573.39166666667</x:v>
+      <x:c r="K5" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L5" t="s">
         <x:v>18</x:v>
@@ -2038,38 +2061,38 @@
       <x:c r="M5" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="N5" s="5">
-        <x:v>44573.39166666667</x:v>
+      <x:c r="N5" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="O5">
         <x:v>2</x:v>
       </x:c>
       <x:c r="P5" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q5" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="R5" t="s">
         <x:v>115</x:v>
       </x:c>
       <x:c r="S5" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="T5">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="U5" s="5">
-        <x:v>44573.39166666667</x:v>
+      <x:c r="U5" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V5">
         <x:v>2</x:v>
       </x:c>
       <x:c r="W5" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="X5" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Y5">
         <x:v>18</x:v>
@@ -2081,16 +2104,16 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="AB5" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="AC5">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AD5" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="AE5" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AF5">
         <x:v>1</x:v>
@@ -2112,29 +2135,29 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="3:37" ht="14.25" customHeight="1">
-      <x:c r="C6" s="6">
-        <x:v>44573.098611111112</x:v>
+      <x:c r="C6" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E6" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="F6" s="5">
-        <x:v>44206.583333333336</x:v>
+      <x:c r="F6" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H6" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="J6">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="K6" s="5">
-        <x:v>44573.098611111112</x:v>
+      <x:c r="K6" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L6" t="s">
         <x:v>18</x:v>
@@ -2142,14 +2165,14 @@
       <x:c r="M6" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="N6" s="5">
-        <x:v>44573.098611111112</x:v>
+      <x:c r="N6" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="O6">
         <x:v>3</x:v>
       </x:c>
       <x:c r="P6" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q6" t="s">
         <x:v>17</x:v>
@@ -2158,22 +2181,22 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="S6" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="T6">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="U6" s="5">
-        <x:v>44573.098611111112</x:v>
+      <x:c r="U6" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V6">
         <x:v>3</x:v>
       </x:c>
       <x:c r="W6" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="X6" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="Y6">
         <x:v>69</x:v>
@@ -2182,16 +2205,16 @@
         <x:v>19725</x:v>
       </x:c>
       <x:c r="AA6" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AB6" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="AC6">
         <x:v>3</x:v>
       </x:c>
       <x:c r="AD6" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="AE6" t="s">
         <x:v>7</x:v>
@@ -2200,7 +2223,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AG6" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="AH6">
         <x:v>3</x:v>
@@ -2209,36 +2232,36 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="AJ6" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AK6">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="3:37">
-      <x:c r="C7" s="6">
-        <x:v>44572.805555555555</x:v>
+      <x:c r="C7" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F7" s="5">
-        <x:v>44206.666666666664</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F7" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I7" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J7">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="K7" s="5">
-        <x:v>44572.805555555555</x:v>
+      <x:c r="K7" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L7" t="s">
         <x:v>18</x:v>
@@ -2246,14 +2269,14 @@
       <x:c r="M7" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="N7" s="5">
-        <x:v>44572.805555555555</x:v>
+      <x:c r="N7" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="O7">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P7" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q7" t="s">
         <x:v>15</x:v>
@@ -2262,22 +2285,22 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="S7" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="T7">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="U7" s="5">
-        <x:v>44572.805555555555</x:v>
+      <x:c r="U7" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V7">
         <x:v>4</x:v>
       </x:c>
       <x:c r="W7" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="X7" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="Y7">
         <x:v>70</x:v>
@@ -2286,19 +2309,19 @@
         <x:v>19360</x:v>
       </x:c>
       <x:c r="AA7" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="AB7" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="AC7">
         <x:v>4</x:v>
       </x:c>
       <x:c r="AD7" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AE7" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AF7">
         <x:v>1</x:v>
@@ -2320,14 +2343,14 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="3:37" ht="13.5" customHeight="1">
-      <x:c r="C8" s="6">
-        <x:v>44572.512499999997</x:v>
+      <x:c r="C8" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E8" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="F8" s="5">
-        <x:v>44207.375</x:v>
+      <x:c r="F8" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G8">
         <x:v>1</x:v>
@@ -2335,14 +2358,14 @@
       <x:c r="H8" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="I8" s="21" t="s">
-        <x:v>23</x:v>
+      <x:c r="I8" s="18" t="s">
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J8">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="K8" s="5">
-        <x:v>44572.512499999997</x:v>
+      <x:c r="K8" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L8" t="s">
         <x:v>9</x:v>
@@ -2350,14 +2373,14 @@
       <x:c r="M8" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="N8" s="5">
-        <x:v>44572.512499999997</x:v>
+      <x:c r="N8" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="O8">
         <x:v>5</x:v>
       </x:c>
       <x:c r="P8" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q8" t="s">
         <x:v>122</x:v>
@@ -2366,22 +2389,22 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="S8" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="T8">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="U8" s="5">
-        <x:v>44572.512499999997</x:v>
+      <x:c r="U8" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V8">
         <x:v>5</x:v>
       </x:c>
       <x:c r="W8" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="X8" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="Y8">
         <x:v>23</x:v>
@@ -2390,25 +2413,25 @@
         <x:v>36231</x:v>
       </x:c>
       <x:c r="AA8" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="AB8" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="AC8">
         <x:v>5</x:v>
       </x:c>
       <x:c r="AD8" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="AE8" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AF8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AG8" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="AH8">
         <x:v>5</x:v>
@@ -2424,15 +2447,15 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="3:37">
-      <x:c r="C9" s="6">
-        <x:v>44572.219444444447</x:v>
-      </x:c>
-      <x:c r="D9" s="8"/>
+      <x:c r="C9" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D9" s="6"/>
       <x:c r="E9" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="F9" s="5">
-        <x:v>44207.458333333336</x:v>
+      <x:c r="F9" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G9">
         <x:v>1</x:v>
@@ -2446,8 +2469,8 @@
       <x:c r="J9">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="K9" s="5">
-        <x:v>44572.219444444447</x:v>
+      <x:c r="K9" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L9" t="s">
         <x:v>9</x:v>
@@ -2455,17 +2478,17 @@
       <x:c r="M9" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="N9" s="5">
-        <x:v>44572.219444444447</x:v>
+      <x:c r="N9" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="O9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="P9" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q9" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="R9" t="s">
         <x:v>115</x:v>
@@ -2476,17 +2499,17 @@
       <x:c r="T9">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="U9" s="5">
-        <x:v>44572.219444444447</x:v>
+      <x:c r="U9" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="W9" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="X9" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Y9">
         <x:v>20</x:v>
@@ -2495,7 +2518,7 @@
         <x:v>37257</x:v>
       </x:c>
       <x:c r="AA9" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="AB9" t="s">
         <x:v>137</x:v>
@@ -2504,7 +2527,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="AD9" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="AE9" t="s">
         <x:v>10</x:v>
@@ -2513,7 +2536,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="AG9" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="AH9">
         <x:v>6</x:v>
@@ -2529,14 +2552,14 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="3:37">
-      <x:c r="C10" s="6">
-        <x:v>44571.926388888889</x:v>
+      <x:c r="C10" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E10" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="F10" s="5">
-        <x:v>44207.375</x:v>
+      <x:c r="F10" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G10">
         <x:v>1</x:v>
@@ -2545,13 +2568,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I10" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J10">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="K10" s="5">
-        <x:v>44571.926388888889</x:v>
+      <x:c r="K10" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L10" t="s">
         <x:v>9</x:v>
@@ -2559,14 +2582,14 @@
       <x:c r="M10" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="N10" s="5">
-        <x:v>44571.926388888889</x:v>
+      <x:c r="N10" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="O10">
         <x:v>7</x:v>
       </x:c>
       <x:c r="P10" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q10" t="s">
         <x:v>16</x:v>
@@ -2580,17 +2603,17 @@
       <x:c r="T10">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="U10" s="5">
-        <x:v>44571.926388888889</x:v>
+      <x:c r="U10" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V10">
         <x:v>7</x:v>
       </x:c>
       <x:c r="W10" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="X10" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="Y10">
         <x:v>68</x:v>
@@ -2599,7 +2622,7 @@
         <x:v>20090</x:v>
       </x:c>
       <x:c r="AA10" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AB10" t="s">
         <x:v>105</x:v>
@@ -2608,16 +2631,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="AD10" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="AE10" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AF10">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AG10" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="AH10">
         <x:v>7</x:v>
@@ -2626,21 +2649,21 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="AJ10" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AK10">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:37">
-      <x:c r="C11" s="6">
-        <x:v>44571.633333333331</x:v>
+      <x:c r="C11" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E11" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="F11" s="5">
-        <x:v>44207.458333333336</x:v>
+      <x:c r="F11" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G11">
         <x:v>1</x:v>
@@ -2649,13 +2672,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I11" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J11">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="K11" s="5">
-        <x:v>44571.633333333331</x:v>
+      <x:c r="K11" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L11" t="s">
         <x:v>9</x:v>
@@ -2663,38 +2686,38 @@
       <x:c r="M11" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="N11" s="5">
-        <x:v>44571.633333333331</x:v>
+      <x:c r="N11" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="O11">
         <x:v>8</x:v>
       </x:c>
       <x:c r="P11" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q11" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="R11" t="s">
         <x:v>115</x:v>
       </x:c>
       <x:c r="S11" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="T11">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="U11" s="5">
-        <x:v>44571.633333333331</x:v>
+      <x:c r="U11" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V11">
         <x:v>8</x:v>
       </x:c>
       <x:c r="W11" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="X11" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Y11">
         <x:v>67</x:v>
@@ -2703,10 +2726,10 @@
         <x:v>20455</x:v>
       </x:c>
       <x:c r="AA11" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AB11" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="AC11">
         <x:v>8</x:v>
@@ -2721,7 +2744,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="AG11" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="AH11">
         <x:v>8</x:v>
@@ -2730,36 +2753,36 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="AJ11" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AK11">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="3:37">
-      <x:c r="C12" s="6">
-        <x:v>44571.340277777781</x:v>
+      <x:c r="C12" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E12" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="F12" s="5">
-        <x:v>44207.583333333336</x:v>
+      <x:c r="F12" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G12">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K12" s="5">
-        <x:v>44571.340277777781</x:v>
-      </x:c>
-      <x:c r="N12" s="5">
-        <x:v>44571.340277777781</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="K12" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N12" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="P12" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q12" t="s">
         <x:v>14</x:v>
@@ -2767,55 +2790,55 @@
       <x:c r="R12" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="U12" s="5">
-        <x:v>44571.340277777781</x:v>
+      <x:c r="U12" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD12" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="AE12" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AF12">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AJ12" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="AK12">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="3:37">
-      <x:c r="C13" s="6">
-        <x:v>44571.047222222223</x:v>
+      <x:c r="C13" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E13" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="F13" s="5">
-        <x:v>44207.666666666664</x:v>
+      <x:c r="F13" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G13">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="K13" s="5">
-        <x:v>44571.047222222223</x:v>
-      </x:c>
-      <x:c r="N13" s="5">
-        <x:v>44571.047222222223</x:v>
-      </x:c>
-      <x:c r="U13" s="5">
-        <x:v>44571.047222222223</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="K13" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N13" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U13" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD13" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="AE13" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AF13">
         <x:v>2</x:v>
@@ -2828,29 +2851,29 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="3:37">
-      <x:c r="C14" s="6">
-        <x:v>44570.754166666666</x:v>
+      <x:c r="C14" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F14" s="5">
-        <x:v>44208.375</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F14" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K14" s="5">
-        <x:v>44570.754166666666</x:v>
-      </x:c>
-      <x:c r="N14" s="5">
-        <x:v>44570.754166666666</x:v>
-      </x:c>
-      <x:c r="U14" s="5">
-        <x:v>44570.754166666666</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K14" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N14" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U14" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD14" t="s">
         <x:v>3</x:v>
@@ -2862,42 +2885,42 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="AJ14" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AK14">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="3:37">
-      <x:c r="C15" s="6">
-        <x:v>44570.461111111108</x:v>
+      <x:c r="C15" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E15" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="F15" s="5">
-        <x:v>44208.458333333336</x:v>
+      <x:c r="F15" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G15">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="K15" s="5">
-        <x:v>44570.461111111108</x:v>
-      </x:c>
-      <x:c r="N15" s="5">
-        <x:v>44570.461111111108</x:v>
-      </x:c>
-      <x:c r="U15" s="5">
-        <x:v>44570.461111111108</x:v>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="K15" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N15" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U15" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD15" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AE15" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AF15">
         <x:v>3</x:v>
@@ -2910,32 +2933,32 @@
       </x:c>
     </x:row>
     <x:row r="16" spans="3:37">
-      <x:c r="C16" s="6">
-        <x:v>44570.168055555558</x:v>
+      <x:c r="C16" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E16" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F16" s="5">
-        <x:v>44208.583333333336</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F16" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G16">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H16" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="K16" s="5">
-        <x:v>44570.168055555558</x:v>
-      </x:c>
-      <x:c r="N16" s="5">
-        <x:v>44570.168055555558</x:v>
-      </x:c>
-      <x:c r="U16" s="5">
-        <x:v>44570.168055555558</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K16" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N16" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U16" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD16" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AE16" t="s">
         <x:v>7</x:v>
@@ -2951,14 +2974,14 @@
       </x:c>
     </x:row>
     <x:row r="17" spans="3:37">
-      <x:c r="C17" s="6">
-        <x:v>44569.875</x:v>
+      <x:c r="C17" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E17" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="F17" s="5">
-        <x:v>44208.666666666664</x:v>
+      <x:c r="F17" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G17">
         <x:v>2</x:v>
@@ -2966,20 +2989,20 @@
       <x:c r="H17" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="K17" s="5">
-        <x:v>44569.875</x:v>
-      </x:c>
-      <x:c r="N17" s="5">
-        <x:v>44569.875</x:v>
-      </x:c>
-      <x:c r="U17" s="5">
-        <x:v>44569.875</x:v>
+      <x:c r="K17" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N17" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U17" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD17" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AE17" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AF17">
         <x:v>3</x:v>
@@ -2992,14 +3015,14 @@
       </x:c>
     </x:row>
     <x:row r="18" spans="3:37">
-      <x:c r="C18" s="6">
-        <x:v>44569.581944444442</x:v>
+      <x:c r="C18" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E18" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="F18" s="5">
-        <x:v>44209.375</x:v>
+      <x:c r="F18" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G18">
         <x:v>2</x:v>
@@ -3007,40 +3030,40 @@
       <x:c r="H18" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="K18" s="5">
-        <x:v>44569.581944444442</x:v>
-      </x:c>
-      <x:c r="N18" s="5">
-        <x:v>44569.581944444442</x:v>
-      </x:c>
-      <x:c r="U18" s="5">
-        <x:v>44569.581944444442</x:v>
+      <x:c r="K18" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N18" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U18" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD18" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE18" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AF18">
         <x:v>3</x:v>
       </x:c>
       <x:c r="AJ18" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AK18">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="3:37">
-      <x:c r="C19" s="6">
-        <x:v>44569.288888888892</x:v>
+      <x:c r="C19" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E19" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="F19" s="5">
-        <x:v>44206.375</x:v>
+      <x:c r="F19" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G19">
         <x:v>2</x:v>
@@ -3048,17 +3071,17 @@
       <x:c r="H19" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="K19" s="5">
-        <x:v>44569.288888888892</x:v>
-      </x:c>
-      <x:c r="N19" s="5">
-        <x:v>44569.288888888892</x:v>
-      </x:c>
-      <x:c r="U19" s="5">
-        <x:v>44569.288888888892</x:v>
+      <x:c r="K19" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N19" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U19" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD19" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="AE19" t="s">
         <x:v>10</x:v>
@@ -3067,21 +3090,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="AJ19" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AK19">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="3:37">
-      <x:c r="C20" s="6">
-        <x:v>44568.995833333334</x:v>
+      <x:c r="C20" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E20" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="F20" s="5">
-        <x:v>44206.458333333336</x:v>
+      <x:c r="F20" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G20">
         <x:v>2</x:v>
@@ -3089,55 +3112,55 @@
       <x:c r="H20" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="K20" s="5">
-        <x:v>44568.995833333334</x:v>
-      </x:c>
-      <x:c r="N20" s="5">
-        <x:v>44568.995833333334</x:v>
-      </x:c>
-      <x:c r="U20" s="5">
-        <x:v>44568.995833333334</x:v>
+      <x:c r="K20" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N20" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U20" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD20" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="AE20" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AF20">
         <x:v>4</x:v>
       </x:c>
       <x:c r="AJ20" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="AK20">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="3:37">
-      <x:c r="C21" s="6">
-        <x:v>44568.702777777777</x:v>
+      <x:c r="C21" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E21" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="F21" s="5">
-        <x:v>44206.583333333336</x:v>
+      <x:c r="F21" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G21">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H21" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K21" s="5">
-        <x:v>44568.702777777777</x:v>
-      </x:c>
-      <x:c r="N21" s="5">
-        <x:v>44568.702777777777</x:v>
-      </x:c>
-      <x:c r="U21" s="5">
-        <x:v>44568.702777777777</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="K21" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N21" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U21" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD21" t="s">
         <x:v>134</x:v>
@@ -3156,58 +3179,58 @@
       </x:c>
     </x:row>
     <x:row r="22" spans="3:37">
-      <x:c r="C22" s="6">
-        <x:v>44568.409722222219</x:v>
-      </x:c>
-      <x:c r="F22" s="5">
-        <x:v>44206.666666666664</x:v>
-      </x:c>
-      <x:c r="K22" s="5">
-        <x:v>44568.409722222219</x:v>
-      </x:c>
-      <x:c r="N22" s="5">
-        <x:v>44568.409722222219</x:v>
-      </x:c>
-      <x:c r="U22" s="5">
-        <x:v>44568.409722222219</x:v>
+      <x:c r="C22" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F22" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K22" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N22" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U22" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD22" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="AE22" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AF22">
         <x:v>4</x:v>
       </x:c>
       <x:c r="AJ22" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AK22">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="3:37">
-      <x:c r="C23" s="6">
-        <x:v>44568.116666666669</x:v>
-      </x:c>
-      <x:c r="F23" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K23" s="5">
-        <x:v>44568.116666666669</x:v>
-      </x:c>
-      <x:c r="N23" s="5">
-        <x:v>44568.116666666669</x:v>
-      </x:c>
-      <x:c r="U23" s="5">
-        <x:v>44568.116666666669</x:v>
+      <x:c r="C23" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F23" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K23" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N23" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U23" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD23" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="AE23" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AF23">
         <x:v>4</x:v>
@@ -3220,20 +3243,20 @@
       </x:c>
     </x:row>
     <x:row r="24" spans="3:37">
-      <x:c r="C24" s="6">
-        <x:v>44567.823611111111</x:v>
-      </x:c>
-      <x:c r="F24" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K24" s="5">
-        <x:v>44567.823611111111</x:v>
-      </x:c>
-      <x:c r="N24" s="5">
-        <x:v>44567.823611111111</x:v>
-      </x:c>
-      <x:c r="U24" s="5">
-        <x:v>44567.823611111111</x:v>
+      <x:c r="C24" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F24" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K24" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N24" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U24" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD24" t="s">
         <x:v>141</x:v>
@@ -3252,26 +3275,26 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="3:37">
-      <x:c r="C25" s="6">
-        <x:v>44567.530555555553</x:v>
-      </x:c>
-      <x:c r="F25" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K25" s="5">
-        <x:v>44567.530555555553</x:v>
-      </x:c>
-      <x:c r="N25" s="5">
-        <x:v>44567.530555555553</x:v>
-      </x:c>
-      <x:c r="U25" s="5">
-        <x:v>44567.530555555553</x:v>
+      <x:c r="C25" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F25" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K25" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N25" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U25" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD25" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="AE25" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AF25">
         <x:v>5</x:v>
@@ -3284,23 +3307,23 @@
       </x:c>
     </x:row>
     <x:row r="26" spans="3:37">
-      <x:c r="C26" s="6">
-        <x:v>44567.237500000003</x:v>
-      </x:c>
-      <x:c r="F26" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K26" s="5">
-        <x:v>44567.237500000003</x:v>
-      </x:c>
-      <x:c r="N26" s="5">
-        <x:v>44567.237500000003</x:v>
-      </x:c>
-      <x:c r="U26" s="5">
-        <x:v>44567.237500000003</x:v>
+      <x:c r="C26" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F26" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K26" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N26" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U26" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD26" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="AE26" t="s">
         <x:v>7</x:v>
@@ -3309,94 +3332,94 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="AJ26" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AK26">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="3:37">
-      <x:c r="C27" s="6">
-        <x:v>44566.944444444445</x:v>
-      </x:c>
-      <x:c r="F27" s="5">
-        <x:v>44207.583333333336</x:v>
-      </x:c>
-      <x:c r="K27" s="5">
-        <x:v>44566.944444444445</x:v>
-      </x:c>
-      <x:c r="N27" s="5">
-        <x:v>44566.944444444445</x:v>
-      </x:c>
-      <x:c r="U27" s="5">
-        <x:v>44566.944444444445</x:v>
+      <x:c r="C27" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F27" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K27" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N27" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U27" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD27" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="AE27" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AF27">
         <x:v>5</x:v>
       </x:c>
       <x:c r="AJ27" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AK27">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="3:37">
-      <x:c r="C28" s="6">
-        <x:v>44566.651388888888</x:v>
-      </x:c>
-      <x:c r="F28" s="5">
-        <x:v>44207.666666666664</x:v>
-      </x:c>
-      <x:c r="K28" s="5">
-        <x:v>44566.651388888888</x:v>
-      </x:c>
-      <x:c r="N28" s="5">
-        <x:v>44566.651388888888</x:v>
-      </x:c>
-      <x:c r="U28" s="5">
-        <x:v>44566.651388888888</x:v>
+      <x:c r="C28" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F28" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K28" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N28" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U28" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD28" t="s">
         <x:v>139</x:v>
       </x:c>
       <x:c r="AE28" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AF28">
         <x:v>5</x:v>
       </x:c>
       <x:c r="AJ28" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="AK28">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="3:37">
-      <x:c r="C29" s="6">
-        <x:v>44566.35833333333</x:v>
-      </x:c>
-      <x:c r="F29" s="5">
-        <x:v>44208.375</x:v>
-      </x:c>
-      <x:c r="K29" s="5">
-        <x:v>44566.35833333333</x:v>
-      </x:c>
-      <x:c r="N29" s="5">
-        <x:v>44566.35833333333</x:v>
-      </x:c>
-      <x:c r="U29" s="5">
-        <x:v>44566.35833333333</x:v>
+      <x:c r="C29" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F29" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K29" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N29" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U29" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD29" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="AE29" t="s">
         <x:v>10</x:v>
@@ -3412,55 +3435,55 @@
       </x:c>
     </x:row>
     <x:row r="30" spans="3:37">
-      <x:c r="C30" s="6">
-        <x:v>44566.06527777778</x:v>
-      </x:c>
-      <x:c r="F30" s="5">
-        <x:v>44208.458333333336</x:v>
-      </x:c>
-      <x:c r="K30" s="5">
-        <x:v>44566.06527777778</x:v>
-      </x:c>
-      <x:c r="N30" s="5">
-        <x:v>44566.06527777778</x:v>
-      </x:c>
-      <x:c r="U30" s="5">
-        <x:v>44566.06527777778</x:v>
+      <x:c r="C30" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F30" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K30" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N30" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U30" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD30" t="s">
         <x:v>140</x:v>
       </x:c>
       <x:c r="AE30" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AF30">
         <x:v>6</x:v>
       </x:c>
       <x:c r="AJ30" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AK30">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="3:37">
-      <x:c r="C31" s="6">
-        <x:v>44565.772222222222</x:v>
-      </x:c>
-      <x:c r="F31" s="5">
-        <x:v>44208.583333333336</x:v>
-      </x:c>
-      <x:c r="K31" s="5">
-        <x:v>44565.772222222222</x:v>
-      </x:c>
-      <x:c r="N31" s="5">
-        <x:v>44565.772222222222</x:v>
-      </x:c>
-      <x:c r="U31" s="5">
-        <x:v>44565.772222222222</x:v>
+      <x:c r="C31" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F31" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K31" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N31" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U31" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD31" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="AE31" t="s">
         <x:v>7</x:v>
@@ -3476,26 +3499,26 @@
       </x:c>
     </x:row>
     <x:row r="32" spans="3:37">
-      <x:c r="C32" s="6">
-        <x:v>44565.479166666664</x:v>
-      </x:c>
-      <x:c r="F32" s="5">
-        <x:v>44208.666666666664</x:v>
-      </x:c>
-      <x:c r="K32" s="5">
-        <x:v>44565.479166666664</x:v>
-      </x:c>
-      <x:c r="N32" s="5">
-        <x:v>44565.479166666664</x:v>
-      </x:c>
-      <x:c r="U32" s="5">
-        <x:v>44565.479166666664</x:v>
+      <x:c r="C32" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F32" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K32" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N32" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U32" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD32" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="AE32" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AF32">
         <x:v>6</x:v>
@@ -3508,26 +3531,26 @@
       </x:c>
     </x:row>
     <x:row r="33" spans="3:37">
-      <x:c r="C33" s="6">
-        <x:v>44565.186111111114</x:v>
-      </x:c>
-      <x:c r="F33" s="5">
-        <x:v>44209.375</x:v>
-      </x:c>
-      <x:c r="K33" s="5">
-        <x:v>44565.186111111114</x:v>
-      </x:c>
-      <x:c r="N33" s="5">
-        <x:v>44565.186111111114</x:v>
-      </x:c>
-      <x:c r="U33" s="5">
-        <x:v>44565.186111111114</x:v>
+      <x:c r="C33" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F33" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K33" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N33" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U33" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD33" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="AE33" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AF33">
         <x:v>6</x:v>
@@ -3540,23 +3563,23 @@
       </x:c>
     </x:row>
     <x:row r="34" spans="3:37">
-      <x:c r="C34" s="6">
-        <x:v>44564.893055555556</x:v>
-      </x:c>
-      <x:c r="F34" s="5">
-        <x:v>44206.375</x:v>
-      </x:c>
-      <x:c r="K34" s="5">
-        <x:v>44564.893055555556</x:v>
-      </x:c>
-      <x:c r="N34" s="5">
-        <x:v>44564.893055555556</x:v>
-      </x:c>
-      <x:c r="U34" s="5">
-        <x:v>44564.893055555556</x:v>
+      <x:c r="C34" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F34" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K34" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N34" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U34" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD34" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="AE34" t="s">
         <x:v>10</x:v>
@@ -3565,62 +3588,62 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="AJ34" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AK34">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="3:37">
-      <x:c r="C35" s="6">
-        <x:v>44564.599999999999</x:v>
-      </x:c>
-      <x:c r="F35" s="5">
-        <x:v>44206.458333333336</x:v>
-      </x:c>
-      <x:c r="K35" s="5">
-        <x:v>44564.599999999999</x:v>
-      </x:c>
-      <x:c r="N35" s="5">
-        <x:v>44564.599999999999</x:v>
-      </x:c>
-      <x:c r="U35" s="5">
-        <x:v>44564.599999999999</x:v>
+      <x:c r="C35" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F35" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K35" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N35" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U35" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD35" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AE35" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AF35">
         <x:v>7</x:v>
       </x:c>
       <x:c r="AJ35" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AK35">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="3:37">
-      <x:c r="C36" s="6">
-        <x:v>44564.306944444441</x:v>
-      </x:c>
-      <x:c r="F36" s="5">
-        <x:v>44206.583333333336</x:v>
-      </x:c>
-      <x:c r="K36" s="5">
-        <x:v>44564.306944444441</x:v>
-      </x:c>
-      <x:c r="N36" s="5">
-        <x:v>44564.306944444441</x:v>
-      </x:c>
-      <x:c r="U36" s="5">
-        <x:v>44564.306944444441</x:v>
+      <x:c r="C36" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F36" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K36" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N36" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U36" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD36" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="AE36" t="s">
         <x:v>7</x:v>
@@ -3629,33 +3652,33 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="AJ36" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="AK36">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="3:37">
-      <x:c r="C37" s="6">
-        <x:v>44564.013888888891</x:v>
-      </x:c>
-      <x:c r="F37" s="5">
-        <x:v>44206.666666666664</x:v>
-      </x:c>
-      <x:c r="K37" s="5">
-        <x:v>44564.013888888891</x:v>
-      </x:c>
-      <x:c r="N37" s="5">
-        <x:v>44564.013888888891</x:v>
-      </x:c>
-      <x:c r="U37" s="5">
-        <x:v>44564.013888888891</x:v>
+      <x:c r="C37" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F37" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K37" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N37" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U37" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD37" t="s">
         <x:v>135</x:v>
       </x:c>
       <x:c r="AE37" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AF37">
         <x:v>7</x:v>
@@ -3668,55 +3691,55 @@
       </x:c>
     </x:row>
     <x:row r="38" spans="3:37">
-      <x:c r="C38" s="6">
-        <x:v>44563.720833333333</x:v>
-      </x:c>
-      <x:c r="F38" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K38" s="5">
-        <x:v>44563.720833333333</x:v>
-      </x:c>
-      <x:c r="N38" s="5">
-        <x:v>44563.720833333333</x:v>
-      </x:c>
-      <x:c r="U38" s="5">
-        <x:v>44563.720833333333</x:v>
+      <x:c r="C38" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F38" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K38" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N38" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U38" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD38" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="AE38" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AF38">
         <x:v>7</x:v>
       </x:c>
       <x:c r="AJ38" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AK38">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="3:37">
-      <x:c r="C39" s="6">
-        <x:v>44563.427777777775</x:v>
-      </x:c>
-      <x:c r="F39" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K39" s="5">
-        <x:v>44563.427777777775</x:v>
-      </x:c>
-      <x:c r="N39" s="5">
-        <x:v>44563.427777777775</x:v>
-      </x:c>
-      <x:c r="U39" s="5">
-        <x:v>44563.427777777775</x:v>
+      <x:c r="C39" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F39" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K39" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N39" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U39" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD39" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="AE39" t="s">
         <x:v>10</x:v>
@@ -3732,26 +3755,26 @@
       </x:c>
     </x:row>
     <x:row r="40" spans="3:37">
-      <x:c r="C40" s="6">
-        <x:v>44563.134722222225</x:v>
-      </x:c>
-      <x:c r="F40" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K40" s="5">
-        <x:v>44563.134722222225</x:v>
-      </x:c>
-      <x:c r="N40" s="5">
-        <x:v>44563.134722222225</x:v>
-      </x:c>
-      <x:c r="U40" s="5">
-        <x:v>44563.134722222225</x:v>
+      <x:c r="C40" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F40" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K40" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N40" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U40" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD40" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="AE40" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="AE40" t="s">
-        <x:v>101</x:v>
       </x:c>
       <x:c r="AF40">
         <x:v>8</x:v>
@@ -3764,23 +3787,23 @@
       </x:c>
     </x:row>
     <x:row r="41" spans="3:37">
-      <x:c r="C41" s="6">
-        <x:v>44562.841666666667</x:v>
-      </x:c>
-      <x:c r="F41" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K41" s="5">
-        <x:v>44562.841666666667</x:v>
-      </x:c>
-      <x:c r="N41" s="5">
-        <x:v>44562.841666666667</x:v>
-      </x:c>
-      <x:c r="U41" s="5">
-        <x:v>44562.841666666667</x:v>
+      <x:c r="C41" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F41" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K41" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N41" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U41" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD41" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="AE41" t="s">
         <x:v>7</x:v>
@@ -3796,107 +3819,107 @@
       </x:c>
     </x:row>
     <x:row r="42" spans="3:37">
-      <x:c r="C42" s="6">
-        <x:v>44562.548611111109</x:v>
-      </x:c>
-      <x:c r="F42" s="5">
-        <x:v>44207.583333333336</x:v>
-      </x:c>
-      <x:c r="K42" s="5">
-        <x:v>44562.548611111109</x:v>
-      </x:c>
-      <x:c r="N42" s="5">
-        <x:v>44562.548611111109</x:v>
-      </x:c>
-      <x:c r="U42" s="5">
-        <x:v>44562.548611111109</x:v>
+      <x:c r="C42" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F42" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K42" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N42" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U42" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD42" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="AE42" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AF42">
         <x:v>8</x:v>
       </x:c>
       <x:c r="AJ42" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AK42">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="3:37">
-      <x:c r="C43" s="6">
-        <x:v>44562.255555555559</x:v>
-      </x:c>
-      <x:c r="F43" s="5">
-        <x:v>44207.666666666664</x:v>
-      </x:c>
-      <x:c r="K43" s="5">
-        <x:v>44562.255555555559</x:v>
-      </x:c>
-      <x:c r="N43" s="5">
-        <x:v>44562.255555555559</x:v>
-      </x:c>
-      <x:c r="U43" s="5">
-        <x:v>44562.255555555559</x:v>
+      <x:c r="C43" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F43" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K43" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N43" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U43" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD43" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="AE43" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AF43">
         <x:v>8</x:v>
       </x:c>
       <x:c r="AJ43" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AK43">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="3:37">
-      <x:c r="C44" s="6">
-        <x:v>44561.962500000001</x:v>
-      </x:c>
-      <x:c r="F44" s="5">
-        <x:v>44208.375</x:v>
-      </x:c>
-      <x:c r="K44" s="5">
-        <x:v>44561.962500000001</x:v>
-      </x:c>
-      <x:c r="N44" s="5">
-        <x:v>44561.962500000001</x:v>
-      </x:c>
-      <x:c r="U44" s="5">
-        <x:v>44561.962500000001</x:v>
+      <x:c r="C44" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F44" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K44" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N44" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U44" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ44" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="AK44">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="3:37">
-      <x:c r="C45" s="6">
-        <x:v>44561.669444444444</x:v>
-      </x:c>
-      <x:c r="F45" s="5">
-        <x:v>44208.458333333336</x:v>
-      </x:c>
-      <x:c r="K45" s="5">
-        <x:v>44561.669444444444</x:v>
-      </x:c>
-      <x:c r="N45" s="5">
-        <x:v>44561.669444444444</x:v>
-      </x:c>
-      <x:c r="U45" s="5">
-        <x:v>44561.669444444444</x:v>
+      <x:c r="C45" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F45" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K45" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N45" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U45" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ45" t="s">
         <x:v>13</x:v>
@@ -3906,43 +3929,43 @@
       </x:c>
     </x:row>
     <x:row r="46" spans="3:37">
-      <x:c r="C46" s="6">
-        <x:v>44561.376388888886</x:v>
-      </x:c>
-      <x:c r="F46" s="5">
-        <x:v>44208.583333333336</x:v>
-      </x:c>
-      <x:c r="K46" s="5">
-        <x:v>44561.376388888886</x:v>
-      </x:c>
-      <x:c r="N46" s="5">
-        <x:v>44561.376388888886</x:v>
-      </x:c>
-      <x:c r="U46" s="5">
-        <x:v>44561.376388888886</x:v>
+      <x:c r="C46" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F46" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K46" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N46" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U46" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ46" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AK46">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="3:37">
-      <x:c r="C47" s="6">
-        <x:v>44561.083333333336</x:v>
-      </x:c>
-      <x:c r="F47" s="5">
-        <x:v>44208.666666666664</x:v>
-      </x:c>
-      <x:c r="K47" s="5">
-        <x:v>44561.083333333336</x:v>
-      </x:c>
-      <x:c r="N47" s="5">
-        <x:v>44561.083333333336</x:v>
-      </x:c>
-      <x:c r="U47" s="5">
-        <x:v>44561.083333333336</x:v>
+      <x:c r="C47" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F47" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K47" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N47" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U47" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ47" t="s">
         <x:v>12</x:v>
@@ -3952,20 +3975,20 @@
       </x:c>
     </x:row>
     <x:row r="48" spans="3:37">
-      <x:c r="C48" s="6">
-        <x:v>44560.790277777778</x:v>
-      </x:c>
-      <x:c r="F48" s="5">
-        <x:v>44209.375</x:v>
-      </x:c>
-      <x:c r="K48" s="5">
-        <x:v>44560.790277777778</x:v>
-      </x:c>
-      <x:c r="N48" s="5">
-        <x:v>44560.790277777778</x:v>
-      </x:c>
-      <x:c r="U48" s="5">
-        <x:v>44560.790277777778</x:v>
+      <x:c r="C48" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F48" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K48" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N48" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U48" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ48" t="s">
         <x:v>130</x:v>
@@ -3975,20 +3998,20 @@
       </x:c>
     </x:row>
     <x:row r="49" spans="3:37">
-      <x:c r="C49" s="6">
-        <x:v>44560.49722222222</x:v>
-      </x:c>
-      <x:c r="F49" s="5">
-        <x:v>44206.375</x:v>
-      </x:c>
-      <x:c r="K49" s="5">
-        <x:v>44560.49722222222</x:v>
-      </x:c>
-      <x:c r="N49" s="5">
-        <x:v>44560.49722222222</x:v>
-      </x:c>
-      <x:c r="U49" s="5">
-        <x:v>44560.49722222222</x:v>
+      <x:c r="C49" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F49" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K49" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N49" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U49" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ49" t="s">
         <x:v>109</x:v>
@@ -3998,89 +4021,89 @@
       </x:c>
     </x:row>
     <x:row r="50" spans="3:37">
-      <x:c r="C50" s="6">
-        <x:v>44560.20416666667</x:v>
-      </x:c>
-      <x:c r="F50" s="5">
-        <x:v>44206.458333333336</x:v>
-      </x:c>
-      <x:c r="K50" s="5">
-        <x:v>44560.20416666667</x:v>
-      </x:c>
-      <x:c r="N50" s="5">
-        <x:v>44560.20416666667</x:v>
-      </x:c>
-      <x:c r="U50" s="5">
-        <x:v>44560.20416666667</x:v>
+      <x:c r="C50" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F50" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K50" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N50" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U50" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ50" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AK50">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="3:37">
-      <x:c r="C51" s="6">
-        <x:v>44559.911111111112</x:v>
-      </x:c>
-      <x:c r="F51" s="5">
-        <x:v>44206.583333333336</x:v>
-      </x:c>
-      <x:c r="K51" s="5">
-        <x:v>44559.911111111112</x:v>
-      </x:c>
-      <x:c r="N51" s="5">
-        <x:v>44559.911111111112</x:v>
-      </x:c>
-      <x:c r="U51" s="5">
-        <x:v>44559.911111111112</x:v>
+      <x:c r="C51" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F51" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K51" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N51" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U51" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ51" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AK51">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="3:37">
-      <x:c r="C52" s="6">
-        <x:v>44559.618055555555</x:v>
-      </x:c>
-      <x:c r="F52" s="5">
-        <x:v>44206.666666666664</x:v>
-      </x:c>
-      <x:c r="K52" s="5">
-        <x:v>44559.618055555555</x:v>
-      </x:c>
-      <x:c r="N52" s="5">
-        <x:v>44559.618055555555</x:v>
-      </x:c>
-      <x:c r="U52" s="5">
-        <x:v>44559.618055555555</x:v>
+      <x:c r="C52" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F52" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K52" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N52" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U52" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ52" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="AK52">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="3:37">
-      <x:c r="C53" s="6">
-        <x:v>44559.324999999997</x:v>
-      </x:c>
-      <x:c r="F53" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K53" s="5">
-        <x:v>44559.324999999997</x:v>
-      </x:c>
-      <x:c r="N53" s="5">
-        <x:v>44559.324999999997</x:v>
-      </x:c>
-      <x:c r="U53" s="5">
-        <x:v>44559.324999999997</x:v>
+      <x:c r="C53" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F53" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K53" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N53" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U53" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ53" t="s">
         <x:v>13</x:v>
@@ -4090,43 +4113,43 @@
       </x:c>
     </x:row>
     <x:row r="54" spans="3:37">
-      <x:c r="C54" s="6">
-        <x:v>44559.031944444447</x:v>
-      </x:c>
-      <x:c r="F54" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K54" s="5">
-        <x:v>44559.031944444447</x:v>
-      </x:c>
-      <x:c r="N54" s="5">
-        <x:v>44559.031944444447</x:v>
-      </x:c>
-      <x:c r="U54" s="5">
-        <x:v>44559.031944444447</x:v>
+      <x:c r="C54" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F54" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K54" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N54" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U54" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ54" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AK54">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="3:37">
-      <x:c r="C55" s="6">
-        <x:v>44558.738888888889</x:v>
-      </x:c>
-      <x:c r="F55" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K55" s="5">
-        <x:v>44558.738888888889</x:v>
-      </x:c>
-      <x:c r="N55" s="5">
-        <x:v>44558.738888888889</x:v>
-      </x:c>
-      <x:c r="U55" s="5">
-        <x:v>44558.738888888889</x:v>
+      <x:c r="C55" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F55" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K55" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N55" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U55" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ55" t="s">
         <x:v>12</x:v>
@@ -4136,20 +4159,20 @@
       </x:c>
     </x:row>
     <x:row r="56" spans="3:37">
-      <x:c r="C56" s="6">
-        <x:v>44558.445833333331</x:v>
-      </x:c>
-      <x:c r="F56" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K56" s="5">
-        <x:v>44558.445833333331</x:v>
-      </x:c>
-      <x:c r="N56" s="5">
-        <x:v>44558.445833333331</x:v>
-      </x:c>
-      <x:c r="U56" s="5">
-        <x:v>44558.445833333331</x:v>
+      <x:c r="C56" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F56" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K56" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N56" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U56" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ56" t="s">
         <x:v>130</x:v>
@@ -4159,20 +4182,20 @@
       </x:c>
     </x:row>
     <x:row r="57" spans="3:37">
-      <x:c r="C57" s="6">
-        <x:v>44558.152777777781</x:v>
-      </x:c>
-      <x:c r="F57" s="5">
-        <x:v>44207.583333333336</x:v>
-      </x:c>
-      <x:c r="K57" s="5">
-        <x:v>44558.152777777781</x:v>
-      </x:c>
-      <x:c r="N57" s="5">
-        <x:v>44558.152777777781</x:v>
-      </x:c>
-      <x:c r="U57" s="5">
-        <x:v>44558.152777777781</x:v>
+      <x:c r="C57" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F57" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K57" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N57" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U57" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ57" t="s">
         <x:v>109</x:v>
@@ -4182,89 +4205,89 @@
       </x:c>
     </x:row>
     <x:row r="58" spans="3:37">
-      <x:c r="C58" s="6">
-        <x:v>44557.859722222223</x:v>
-      </x:c>
-      <x:c r="F58" s="5">
-        <x:v>44207.666666666664</x:v>
-      </x:c>
-      <x:c r="K58" s="5">
-        <x:v>44557.859722222223</x:v>
-      </x:c>
-      <x:c r="N58" s="5">
-        <x:v>44557.859722222223</x:v>
-      </x:c>
-      <x:c r="U58" s="5">
-        <x:v>44557.859722222223</x:v>
+      <x:c r="C58" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F58" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K58" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N58" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U58" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ58" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AK58">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="3:37">
-      <x:c r="C59" s="6">
-        <x:v>44557.566666666666</x:v>
-      </x:c>
-      <x:c r="F59" s="5">
-        <x:v>44208.375</x:v>
-      </x:c>
-      <x:c r="K59" s="5">
-        <x:v>44557.566666666666</x:v>
-      </x:c>
-      <x:c r="N59" s="5">
-        <x:v>44557.566666666666</x:v>
-      </x:c>
-      <x:c r="U59" s="5">
-        <x:v>44557.566666666666</x:v>
+      <x:c r="C59" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F59" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K59" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N59" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U59" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ59" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AK59">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="3:37">
-      <x:c r="C60" s="6">
-        <x:v>44557.273611111108</x:v>
-      </x:c>
-      <x:c r="F60" s="5">
-        <x:v>44208.458333333336</x:v>
-      </x:c>
-      <x:c r="K60" s="5">
-        <x:v>44557.273611111108</x:v>
-      </x:c>
-      <x:c r="N60" s="5">
-        <x:v>44557.273611111108</x:v>
-      </x:c>
-      <x:c r="U60" s="5">
-        <x:v>44557.273611111108</x:v>
+      <x:c r="C60" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F60" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K60" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N60" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U60" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ60" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="AK60">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="3:37">
-      <x:c r="C61" s="6">
-        <x:v>44556.980555555558</x:v>
-      </x:c>
-      <x:c r="F61" s="5">
-        <x:v>44208.583333333336</x:v>
-      </x:c>
-      <x:c r="K61" s="5">
-        <x:v>44556.980555555558</x:v>
-      </x:c>
-      <x:c r="N61" s="5">
-        <x:v>44556.980555555558</x:v>
-      </x:c>
-      <x:c r="U61" s="5">
-        <x:v>44556.980555555558</x:v>
+      <x:c r="C61" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F61" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K61" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N61" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U61" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ61" t="s">
         <x:v>13</x:v>
@@ -4274,43 +4297,43 @@
       </x:c>
     </x:row>
     <x:row r="62" spans="3:37">
-      <x:c r="C62" s="6">
-        <x:v>44556.6875</x:v>
-      </x:c>
-      <x:c r="F62" s="5">
-        <x:v>44208.666666666664</x:v>
-      </x:c>
-      <x:c r="K62" s="5">
-        <x:v>44556.6875</x:v>
-      </x:c>
-      <x:c r="N62" s="5">
-        <x:v>44556.6875</x:v>
-      </x:c>
-      <x:c r="U62" s="5">
-        <x:v>44556.6875</x:v>
+      <x:c r="C62" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F62" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K62" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N62" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U62" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ62" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AK62">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="3:37">
-      <x:c r="C63" s="6">
-        <x:v>44556.394444444442</x:v>
-      </x:c>
-      <x:c r="F63" s="5">
-        <x:v>44209.375</x:v>
-      </x:c>
-      <x:c r="K63" s="5">
-        <x:v>44556.394444444442</x:v>
-      </x:c>
-      <x:c r="N63" s="5">
-        <x:v>44556.394444444442</x:v>
-      </x:c>
-      <x:c r="U63" s="5">
-        <x:v>44556.394444444442</x:v>
+      <x:c r="C63" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F63" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K63" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N63" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U63" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ63" t="s">
         <x:v>12</x:v>
@@ -4320,20 +4343,20 @@
       </x:c>
     </x:row>
     <x:row r="64" spans="3:37">
-      <x:c r="C64" s="6">
-        <x:v>44556.101388888892</x:v>
-      </x:c>
-      <x:c r="F64" s="5">
-        <x:v>44206.375</x:v>
-      </x:c>
-      <x:c r="K64" s="5">
-        <x:v>44556.101388888892</x:v>
-      </x:c>
-      <x:c r="N64" s="5">
-        <x:v>44556.101388888892</x:v>
-      </x:c>
-      <x:c r="U64" s="5">
-        <x:v>44556.101388888892</x:v>
+      <x:c r="C64" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F64" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K64" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N64" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U64" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ64" t="s">
         <x:v>130</x:v>
@@ -4343,20 +4366,20 @@
       </x:c>
     </x:row>
     <x:row r="65" spans="3:37">
-      <x:c r="C65" s="6">
-        <x:v>44555.808333333334</x:v>
-      </x:c>
-      <x:c r="F65" s="5">
-        <x:v>44206.458333333336</x:v>
-      </x:c>
-      <x:c r="K65" s="5">
-        <x:v>44555.808333333334</x:v>
-      </x:c>
-      <x:c r="N65" s="5">
-        <x:v>44555.808333333334</x:v>
-      </x:c>
-      <x:c r="U65" s="5">
-        <x:v>44555.808333333334</x:v>
+      <x:c r="C65" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F65" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K65" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N65" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U65" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ65" t="s">
         <x:v>109</x:v>
@@ -4366,1983 +4389,1983 @@
       </x:c>
     </x:row>
     <x:row r="66" spans="3:37">
-      <x:c r="C66" s="6">
-        <x:v>44555.515277777777</x:v>
-      </x:c>
-      <x:c r="F66" s="5">
-        <x:v>44206.583333333336</x:v>
-      </x:c>
-      <x:c r="K66" s="5">
-        <x:v>44555.515277777777</x:v>
-      </x:c>
-      <x:c r="N66" s="5">
-        <x:v>44555.515277777777</x:v>
-      </x:c>
-      <x:c r="U66" s="5">
-        <x:v>44555.515277777777</x:v>
+      <x:c r="C66" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F66" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K66" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N66" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U66" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ66" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AK66">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="3:37">
-      <x:c r="C67" s="6">
-        <x:v>44555.222222222219</x:v>
-      </x:c>
-      <x:c r="F67" s="5">
-        <x:v>44206.666666666664</x:v>
-      </x:c>
-      <x:c r="K67" s="5">
-        <x:v>44555.222222222219</x:v>
-      </x:c>
-      <x:c r="N67" s="5">
-        <x:v>44555.222222222219</x:v>
-      </x:c>
-      <x:c r="U67" s="5">
-        <x:v>44555.222222222219</x:v>
+      <x:c r="C67" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F67" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K67" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N67" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U67" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AJ67" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AK67">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="3:21">
-      <x:c r="C68" s="6">
-        <x:v>44554.929166666669</x:v>
-      </x:c>
-      <x:c r="F68" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K68" s="5">
-        <x:v>44554.929166666669</x:v>
-      </x:c>
-      <x:c r="N68" s="5">
-        <x:v>44554.929166666669</x:v>
-      </x:c>
-      <x:c r="U68" s="5">
-        <x:v>44554.929166666669</x:v>
+      <x:c r="C68" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F68" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K68" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N68" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U68" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="3:21">
-      <x:c r="C69" s="6">
-        <x:v>44554.636111111111</x:v>
-      </x:c>
-      <x:c r="F69" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K69" s="5">
-        <x:v>44554.636111111111</x:v>
-      </x:c>
-      <x:c r="N69" s="5">
-        <x:v>44554.636111111111</x:v>
-      </x:c>
-      <x:c r="U69" s="5">
-        <x:v>44554.636111111111</x:v>
+      <x:c r="C69" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F69" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K69" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N69" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U69" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="3:21">
-      <x:c r="C70" s="6">
-        <x:v>44554.343055555553</x:v>
-      </x:c>
-      <x:c r="F70" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K70" s="5">
-        <x:v>44554.343055555553</x:v>
-      </x:c>
-      <x:c r="N70" s="5">
-        <x:v>44554.343055555553</x:v>
-      </x:c>
-      <x:c r="U70" s="5">
-        <x:v>44554.343055555553</x:v>
+      <x:c r="C70" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F70" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K70" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N70" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U70" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="3:21">
-      <x:c r="C71" s="6">
-        <x:v>44554.050000000003</x:v>
-      </x:c>
-      <x:c r="F71" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K71" s="5">
-        <x:v>44554.050000000003</x:v>
-      </x:c>
-      <x:c r="N71" s="5">
-        <x:v>44554.050000000003</x:v>
-      </x:c>
-      <x:c r="U71" s="5">
-        <x:v>44554.050000000003</x:v>
+      <x:c r="C71" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F71" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K71" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N71" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U71" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="3:21">
-      <x:c r="C72" s="6">
-        <x:v>44553.756944444445</x:v>
-      </x:c>
-      <x:c r="F72" s="5">
-        <x:v>44207.583333333336</x:v>
-      </x:c>
-      <x:c r="K72" s="5">
-        <x:v>44553.756944444445</x:v>
-      </x:c>
-      <x:c r="N72" s="5">
-        <x:v>44553.756944444445</x:v>
-      </x:c>
-      <x:c r="U72" s="5">
-        <x:v>44553.756944444445</x:v>
+      <x:c r="C72" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F72" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K72" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N72" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U72" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="3:21">
-      <x:c r="C73" s="6">
-        <x:v>44553.463888888888</x:v>
-      </x:c>
-      <x:c r="F73" s="5">
-        <x:v>44207.666666666664</x:v>
-      </x:c>
-      <x:c r="K73" s="5">
-        <x:v>44553.463888888888</x:v>
-      </x:c>
-      <x:c r="N73" s="5">
-        <x:v>44553.463888888888</x:v>
-      </x:c>
-      <x:c r="U73" s="5">
-        <x:v>44553.463888888888</x:v>
+      <x:c r="C73" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F73" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K73" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N73" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U73" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="3:21">
-      <x:c r="C74" s="6">
-        <x:v>44553.17083333333</x:v>
-      </x:c>
-      <x:c r="F74" s="5">
-        <x:v>44208.375</x:v>
-      </x:c>
-      <x:c r="K74" s="5">
-        <x:v>44553.17083333333</x:v>
-      </x:c>
-      <x:c r="N74" s="5">
-        <x:v>44553.17083333333</x:v>
-      </x:c>
-      <x:c r="U74" s="5">
-        <x:v>44553.17083333333</x:v>
+      <x:c r="C74" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F74" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K74" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N74" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U74" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="3:21">
-      <x:c r="C75" s="6">
-        <x:v>44552.87777777778</x:v>
-      </x:c>
-      <x:c r="F75" s="5">
-        <x:v>44208.458333333336</x:v>
-      </x:c>
-      <x:c r="K75" s="5">
-        <x:v>44552.87777777778</x:v>
-      </x:c>
-      <x:c r="N75" s="5">
-        <x:v>44552.87777777778</x:v>
-      </x:c>
-      <x:c r="U75" s="5">
-        <x:v>44552.87777777778</x:v>
+      <x:c r="C75" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F75" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K75" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N75" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U75" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="3:21">
-      <x:c r="C76" s="6">
-        <x:v>44552.584722222222</x:v>
-      </x:c>
-      <x:c r="F76" s="5">
-        <x:v>44208.583333333336</x:v>
-      </x:c>
-      <x:c r="K76" s="5">
-        <x:v>44552.584722222222</x:v>
-      </x:c>
-      <x:c r="N76" s="5">
-        <x:v>44552.584722222222</x:v>
-      </x:c>
-      <x:c r="U76" s="5">
-        <x:v>44552.584722222222</x:v>
+      <x:c r="C76" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F76" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K76" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N76" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U76" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="3:21">
-      <x:c r="C77" s="6">
-        <x:v>44552.291666666664</x:v>
-      </x:c>
-      <x:c r="F77" s="5">
-        <x:v>44208.666666666664</x:v>
-      </x:c>
-      <x:c r="K77" s="5">
-        <x:v>44552.291666666664</x:v>
-      </x:c>
-      <x:c r="N77" s="5">
-        <x:v>44552.291666666664</x:v>
-      </x:c>
-      <x:c r="U77" s="5">
-        <x:v>44552.291666666664</x:v>
+      <x:c r="C77" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F77" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K77" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N77" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U77" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="3:21">
-      <x:c r="C78" s="6">
-        <x:v>44551.998611111114</x:v>
-      </x:c>
-      <x:c r="F78" s="5">
-        <x:v>44209.375</x:v>
-      </x:c>
-      <x:c r="K78" s="5">
-        <x:v>44551.998611111114</x:v>
-      </x:c>
-      <x:c r="N78" s="5">
-        <x:v>44551.998611111114</x:v>
-      </x:c>
-      <x:c r="U78" s="5">
-        <x:v>44551.998611111114</x:v>
+      <x:c r="C78" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F78" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K78" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N78" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U78" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="3:21">
-      <x:c r="C79" s="6">
-        <x:v>44551.705555555556</x:v>
-      </x:c>
-      <x:c r="F79" s="5">
-        <x:v>44206.375</x:v>
-      </x:c>
-      <x:c r="K79" s="5">
-        <x:v>44551.705555555556</x:v>
-      </x:c>
-      <x:c r="N79" s="5">
-        <x:v>44551.705555555556</x:v>
-      </x:c>
-      <x:c r="U79" s="5">
-        <x:v>44551.705555555556</x:v>
+      <x:c r="C79" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F79" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K79" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N79" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U79" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="3:21">
-      <x:c r="C80" s="6">
-        <x:v>44551.412499999999</x:v>
-      </x:c>
-      <x:c r="F80" s="5">
-        <x:v>44206.458333333336</x:v>
-      </x:c>
-      <x:c r="K80" s="5">
-        <x:v>44551.412499999999</x:v>
-      </x:c>
-      <x:c r="N80" s="5">
-        <x:v>44551.412499999999</x:v>
-      </x:c>
-      <x:c r="U80" s="5">
-        <x:v>44551.412499999999</x:v>
+      <x:c r="C80" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F80" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K80" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N80" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U80" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="3:21">
-      <x:c r="C81" s="6">
-        <x:v>44551.119444444441</x:v>
-      </x:c>
-      <x:c r="F81" s="5">
-        <x:v>44206.583333333336</x:v>
-      </x:c>
-      <x:c r="K81" s="5">
-        <x:v>44551.119444444441</x:v>
-      </x:c>
-      <x:c r="N81" s="5">
-        <x:v>44551.119444444441</x:v>
-      </x:c>
-      <x:c r="U81" s="5">
-        <x:v>44551.119444444441</x:v>
+      <x:c r="C81" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F81" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K81" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N81" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U81" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="3:21">
-      <x:c r="C82" s="6">
-        <x:v>44550.826388888891</x:v>
-      </x:c>
-      <x:c r="F82" s="5">
-        <x:v>44206.666666666664</x:v>
-      </x:c>
-      <x:c r="K82" s="5">
-        <x:v>44550.826388888891</x:v>
-      </x:c>
-      <x:c r="N82" s="5">
-        <x:v>44550.826388888891</x:v>
-      </x:c>
-      <x:c r="U82" s="5">
-        <x:v>44550.826388888891</x:v>
+      <x:c r="C82" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F82" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K82" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N82" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U82" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="3:21">
-      <x:c r="C83" s="6">
-        <x:v>44550.533333333333</x:v>
-      </x:c>
-      <x:c r="F83" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K83" s="5">
-        <x:v>44550.533333333333</x:v>
-      </x:c>
-      <x:c r="N83" s="5">
-        <x:v>44550.533333333333</x:v>
-      </x:c>
-      <x:c r="U83" s="5">
-        <x:v>44550.533333333333</x:v>
+      <x:c r="C83" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F83" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K83" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N83" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U83" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="3:21">
-      <x:c r="C84" s="6">
-        <x:v>44550.240277777775</x:v>
-      </x:c>
-      <x:c r="F84" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K84" s="5">
-        <x:v>44550.240277777775</x:v>
-      </x:c>
-      <x:c r="N84" s="5">
-        <x:v>44550.240277777775</x:v>
-      </x:c>
-      <x:c r="U84" s="5">
-        <x:v>44550.240277777775</x:v>
+      <x:c r="C84" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F84" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K84" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N84" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U84" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="3:21">
-      <x:c r="C85" s="6">
-        <x:v>44549.947222222225</x:v>
-      </x:c>
-      <x:c r="F85" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K85" s="5">
-        <x:v>44549.947222222225</x:v>
-      </x:c>
-      <x:c r="N85" s="5">
-        <x:v>44549.947222222225</x:v>
-      </x:c>
-      <x:c r="U85" s="5">
-        <x:v>44549.947222222225</x:v>
+      <x:c r="C85" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F85" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K85" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N85" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U85" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="3:21">
-      <x:c r="C86" s="6">
-        <x:v>44549.654166666667</x:v>
-      </x:c>
-      <x:c r="F86" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K86" s="5">
-        <x:v>44549.654166666667</x:v>
-      </x:c>
-      <x:c r="N86" s="5">
-        <x:v>44549.654166666667</x:v>
-      </x:c>
-      <x:c r="U86" s="5">
-        <x:v>44549.654166666667</x:v>
+      <x:c r="C86" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F86" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K86" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N86" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U86" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="3:21">
-      <x:c r="C87" s="6">
-        <x:v>44549.361111111109</x:v>
-      </x:c>
-      <x:c r="F87" s="5">
-        <x:v>44207.583333333336</x:v>
-      </x:c>
-      <x:c r="K87" s="5">
-        <x:v>44549.361111111109</x:v>
-      </x:c>
-      <x:c r="N87" s="5">
-        <x:v>44549.361111111109</x:v>
-      </x:c>
-      <x:c r="U87" s="5">
-        <x:v>44549.361111111109</x:v>
+      <x:c r="C87" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F87" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K87" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N87" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U87" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="3:21">
-      <x:c r="C88" s="6">
-        <x:v>44549.068055555559</x:v>
-      </x:c>
-      <x:c r="F88" s="5">
-        <x:v>44207.666666666664</x:v>
-      </x:c>
-      <x:c r="K88" s="5">
-        <x:v>44549.068055555559</x:v>
-      </x:c>
-      <x:c r="N88" s="5">
-        <x:v>44549.068055555559</x:v>
-      </x:c>
-      <x:c r="U88" s="5">
-        <x:v>44549.068055555559</x:v>
+      <x:c r="C88" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F88" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K88" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N88" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U88" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="3:21">
-      <x:c r="C89" s="6">
-        <x:v>44548.775000000001</x:v>
-      </x:c>
-      <x:c r="F89" s="5">
-        <x:v>44208.375</x:v>
-      </x:c>
-      <x:c r="K89" s="5">
-        <x:v>44548.775000000001</x:v>
-      </x:c>
-      <x:c r="N89" s="5">
-        <x:v>44548.775000000001</x:v>
-      </x:c>
-      <x:c r="U89" s="5">
-        <x:v>44548.775000000001</x:v>
+      <x:c r="C89" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F89" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K89" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N89" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U89" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="3:21">
-      <x:c r="C90" s="6">
-        <x:v>44548.481944444444</x:v>
-      </x:c>
-      <x:c r="F90" s="5">
-        <x:v>44208.458333333336</x:v>
-      </x:c>
-      <x:c r="K90" s="5">
-        <x:v>44548.481944444444</x:v>
-      </x:c>
-      <x:c r="N90" s="5">
-        <x:v>44548.481944444444</x:v>
-      </x:c>
-      <x:c r="U90" s="5">
-        <x:v>44548.481944444444</x:v>
+      <x:c r="C90" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F90" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K90" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N90" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U90" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="3:21">
-      <x:c r="C91" s="6">
-        <x:v>44548.188888888886</x:v>
-      </x:c>
-      <x:c r="F91" s="5">
-        <x:v>44208.583333333336</x:v>
-      </x:c>
-      <x:c r="K91" s="5">
-        <x:v>44548.188888888886</x:v>
-      </x:c>
-      <x:c r="N91" s="5">
-        <x:v>44548.188888888886</x:v>
-      </x:c>
-      <x:c r="U91" s="5">
-        <x:v>44548.188888888886</x:v>
+      <x:c r="C91" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F91" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K91" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N91" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U91" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="3:21">
-      <x:c r="C92" s="6">
-        <x:v>44547.895833333336</x:v>
-      </x:c>
-      <x:c r="F92" s="5">
-        <x:v>44208.666666666664</x:v>
-      </x:c>
-      <x:c r="K92" s="5">
-        <x:v>44547.895833333336</x:v>
-      </x:c>
-      <x:c r="N92" s="5">
-        <x:v>44547.895833333336</x:v>
-      </x:c>
-      <x:c r="U92" s="5">
-        <x:v>44547.895833333336</x:v>
+      <x:c r="C92" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F92" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K92" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N92" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U92" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="3:21">
-      <x:c r="C93" s="6">
-        <x:v>44547.602777777778</x:v>
-      </x:c>
-      <x:c r="F93" s="5">
-        <x:v>44209.375</x:v>
-      </x:c>
-      <x:c r="K93" s="5">
-        <x:v>44547.602777777778</x:v>
-      </x:c>
-      <x:c r="N93" s="5">
-        <x:v>44547.602777777778</x:v>
-      </x:c>
-      <x:c r="U93" s="5">
-        <x:v>44547.602777777778</x:v>
+      <x:c r="C93" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F93" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K93" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N93" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U93" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="3:21">
-      <x:c r="C94" s="6">
-        <x:v>44547.30972222222</x:v>
-      </x:c>
-      <x:c r="F94" s="5">
-        <x:v>44206.375</x:v>
-      </x:c>
-      <x:c r="K94" s="5">
-        <x:v>44547.30972222222</x:v>
-      </x:c>
-      <x:c r="N94" s="5">
-        <x:v>44547.30972222222</x:v>
-      </x:c>
-      <x:c r="U94" s="5">
-        <x:v>44547.30972222222</x:v>
+      <x:c r="C94" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F94" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K94" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N94" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U94" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="3:21">
-      <x:c r="C95" s="6">
-        <x:v>44547.01666666667</x:v>
-      </x:c>
-      <x:c r="F95" s="5">
-        <x:v>44206.458333333336</x:v>
-      </x:c>
-      <x:c r="K95" s="5">
-        <x:v>44547.01666666667</x:v>
-      </x:c>
-      <x:c r="N95" s="5">
-        <x:v>44547.01666666667</x:v>
-      </x:c>
-      <x:c r="U95" s="5">
-        <x:v>44547.01666666667</x:v>
+      <x:c r="C95" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F95" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K95" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N95" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U95" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="3:21">
-      <x:c r="C96" s="6">
-        <x:v>44546.723611111112</x:v>
-      </x:c>
-      <x:c r="F96" s="5">
-        <x:v>44206.583333333336</x:v>
-      </x:c>
-      <x:c r="K96" s="5">
-        <x:v>44546.723611111112</x:v>
-      </x:c>
-      <x:c r="N96" s="5">
-        <x:v>44546.723611111112</x:v>
-      </x:c>
-      <x:c r="U96" s="5">
-        <x:v>44546.723611111112</x:v>
+      <x:c r="C96" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F96" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K96" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N96" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U96" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="3:21">
-      <x:c r="C97" s="6">
-        <x:v>44546.430555555555</x:v>
-      </x:c>
-      <x:c r="F97" s="5">
-        <x:v>44206.666666666664</x:v>
-      </x:c>
-      <x:c r="K97" s="5">
-        <x:v>44546.430555555555</x:v>
-      </x:c>
-      <x:c r="N97" s="5">
-        <x:v>44546.430555555555</x:v>
-      </x:c>
-      <x:c r="U97" s="5">
-        <x:v>44546.430555555555</x:v>
+      <x:c r="C97" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F97" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K97" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N97" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U97" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="3:21">
-      <x:c r="C98" s="6">
-        <x:v>44546.137499999997</x:v>
-      </x:c>
-      <x:c r="F98" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K98" s="5">
-        <x:v>44546.137499999997</x:v>
-      </x:c>
-      <x:c r="N98" s="5">
-        <x:v>44546.137499999997</x:v>
-      </x:c>
-      <x:c r="U98" s="5">
-        <x:v>44546.137499999997</x:v>
+      <x:c r="C98" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F98" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K98" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N98" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U98" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="3:21">
-      <x:c r="C99" s="6">
-        <x:v>44545.844444444447</x:v>
-      </x:c>
-      <x:c r="F99" s="5">
-        <x:v>44207.458333333336</x:v>
-      </x:c>
-      <x:c r="K99" s="5">
-        <x:v>44545.844444444447</x:v>
-      </x:c>
-      <x:c r="N99" s="5">
-        <x:v>44545.844444444447</x:v>
-      </x:c>
-      <x:c r="U99" s="5">
-        <x:v>44545.844444444447</x:v>
+      <x:c r="C99" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F99" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K99" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N99" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U99" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="3:21">
-      <x:c r="C100" s="6">
-        <x:v>44545.551388888889</x:v>
-      </x:c>
-      <x:c r="F100" s="5">
-        <x:v>44207.375</x:v>
-      </x:c>
-      <x:c r="K100" s="5">
-        <x:v>44545.551388888889</x:v>
-      </x:c>
-      <x:c r="N100" s="5">
-        <x:v>44545.551388888889</x:v>
-      </x:c>
-      <x:c r="U100" s="5">
-        <x:v>44545.551388888889</x:v>
+      <x:c r="C100" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F100" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="K100" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N100" s="22" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="U100" s="22" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:26">
-      <x:c r="A101" s="12"/>
-      <x:c r="B101" s="12"/>
-      <x:c r="C101" s="7"/>
-      <x:c r="D101" s="12"/>
-      <x:c r="E101" s="12"/>
-      <x:c r="F101" s="11"/>
-      <x:c r="G101" s="12"/>
-      <x:c r="H101" s="12"/>
-      <x:c r="I101" s="12"/>
-      <x:c r="J101" s="12"/>
-      <x:c r="K101" s="11"/>
-      <x:c r="L101" s="12"/>
-      <x:c r="M101" s="12"/>
-      <x:c r="N101" s="11"/>
-      <x:c r="O101" s="12"/>
-      <x:c r="P101" s="12"/>
-      <x:c r="Q101" s="12"/>
-      <x:c r="R101" s="12"/>
-      <x:c r="S101" s="12"/>
-      <x:c r="T101" s="12"/>
-      <x:c r="U101" s="11"/>
-      <x:c r="V101" s="12"/>
-      <x:c r="W101" s="12"/>
-      <x:c r="X101" s="12"/>
-      <x:c r="Y101" s="12"/>
-      <x:c r="Z101" s="12"/>
+      <x:c r="A101" s="10"/>
+      <x:c r="B101" s="10"/>
+      <x:c r="C101" s="5"/>
+      <x:c r="D101" s="10"/>
+      <x:c r="E101" s="10"/>
+      <x:c r="F101" s="9"/>
+      <x:c r="G101" s="10"/>
+      <x:c r="H101" s="10"/>
+      <x:c r="I101" s="10"/>
+      <x:c r="J101" s="10"/>
+      <x:c r="K101" s="9"/>
+      <x:c r="L101" s="10"/>
+      <x:c r="M101" s="10"/>
+      <x:c r="N101" s="9"/>
+      <x:c r="O101" s="10"/>
+      <x:c r="P101" s="10"/>
+      <x:c r="Q101" s="10"/>
+      <x:c r="R101" s="10"/>
+      <x:c r="S101" s="10"/>
+      <x:c r="T101" s="10"/>
+      <x:c r="U101" s="9"/>
+      <x:c r="V101" s="10"/>
+      <x:c r="W101" s="10"/>
+      <x:c r="X101" s="10"/>
+      <x:c r="Y101" s="10"/>
+      <x:c r="Z101" s="10"/>
     </x:row>
     <x:row r="102" spans="1:26">
-      <x:c r="A102" s="12"/>
-      <x:c r="B102" s="12"/>
-      <x:c r="C102" s="7"/>
-      <x:c r="D102" s="12"/>
-      <x:c r="E102" s="12"/>
-      <x:c r="F102" s="11"/>
-      <x:c r="G102" s="12"/>
-      <x:c r="H102" s="12"/>
-      <x:c r="I102" s="12"/>
-      <x:c r="J102" s="12"/>
-      <x:c r="K102" s="11"/>
-      <x:c r="L102" s="12"/>
-      <x:c r="M102" s="12"/>
-      <x:c r="N102" s="11"/>
-      <x:c r="O102" s="12"/>
-      <x:c r="P102" s="12"/>
-      <x:c r="Q102" s="12"/>
-      <x:c r="R102" s="12"/>
-      <x:c r="S102" s="12"/>
-      <x:c r="T102" s="12"/>
-      <x:c r="U102" s="11"/>
-      <x:c r="V102" s="12"/>
-      <x:c r="W102" s="12"/>
-      <x:c r="X102" s="12"/>
-      <x:c r="Y102" s="12"/>
-      <x:c r="Z102" s="12"/>
+      <x:c r="A102" s="10"/>
+      <x:c r="B102" s="10"/>
+      <x:c r="C102" s="5"/>
+      <x:c r="D102" s="10"/>
+      <x:c r="E102" s="10"/>
+      <x:c r="F102" s="9"/>
+      <x:c r="G102" s="10"/>
+      <x:c r="H102" s="10"/>
+      <x:c r="I102" s="10"/>
+      <x:c r="J102" s="10"/>
+      <x:c r="K102" s="9"/>
+      <x:c r="L102" s="10"/>
+      <x:c r="M102" s="10"/>
+      <x:c r="N102" s="9"/>
+      <x:c r="O102" s="10"/>
+      <x:c r="P102" s="10"/>
+      <x:c r="Q102" s="10"/>
+      <x:c r="R102" s="10"/>
+      <x:c r="S102" s="10"/>
+      <x:c r="T102" s="10"/>
+      <x:c r="U102" s="9"/>
+      <x:c r="V102" s="10"/>
+      <x:c r="W102" s="10"/>
+      <x:c r="X102" s="10"/>
+      <x:c r="Y102" s="10"/>
+      <x:c r="Z102" s="10"/>
     </x:row>
     <x:row r="103" spans="1:26">
-      <x:c r="A103" s="12"/>
-      <x:c r="B103" s="12"/>
-      <x:c r="C103" s="7"/>
-      <x:c r="D103" s="12"/>
-      <x:c r="E103" s="12"/>
-      <x:c r="F103" s="11"/>
-      <x:c r="G103" s="12"/>
-      <x:c r="H103" s="12"/>
-      <x:c r="I103" s="12"/>
-      <x:c r="J103" s="12"/>
-      <x:c r="K103" s="11"/>
-      <x:c r="L103" s="12"/>
-      <x:c r="M103" s="12"/>
-      <x:c r="N103" s="11"/>
-      <x:c r="O103" s="12"/>
-      <x:c r="P103" s="12"/>
-      <x:c r="Q103" s="12"/>
-      <x:c r="R103" s="12"/>
-      <x:c r="S103" s="12"/>
-      <x:c r="T103" s="12"/>
-      <x:c r="U103" s="11"/>
-      <x:c r="V103" s="12"/>
-      <x:c r="W103" s="12"/>
-      <x:c r="X103" s="12"/>
-      <x:c r="Y103" s="12"/>
-      <x:c r="Z103" s="12"/>
+      <x:c r="A103" s="10"/>
+      <x:c r="B103" s="10"/>
+      <x:c r="C103" s="5"/>
+      <x:c r="D103" s="10"/>
+      <x:c r="E103" s="10"/>
+      <x:c r="F103" s="9"/>
+      <x:c r="G103" s="10"/>
+      <x:c r="H103" s="10"/>
+      <x:c r="I103" s="10"/>
+      <x:c r="J103" s="10"/>
+      <x:c r="K103" s="9"/>
+      <x:c r="L103" s="10"/>
+      <x:c r="M103" s="10"/>
+      <x:c r="N103" s="9"/>
+      <x:c r="O103" s="10"/>
+      <x:c r="P103" s="10"/>
+      <x:c r="Q103" s="10"/>
+      <x:c r="R103" s="10"/>
+      <x:c r="S103" s="10"/>
+      <x:c r="T103" s="10"/>
+      <x:c r="U103" s="9"/>
+      <x:c r="V103" s="10"/>
+      <x:c r="W103" s="10"/>
+      <x:c r="X103" s="10"/>
+      <x:c r="Y103" s="10"/>
+      <x:c r="Z103" s="10"/>
     </x:row>
     <x:row r="104" spans="1:26">
-      <x:c r="A104" s="12"/>
-      <x:c r="B104" s="12"/>
-      <x:c r="C104" s="7"/>
-      <x:c r="D104" s="12"/>
-      <x:c r="E104" s="12"/>
-      <x:c r="F104" s="11"/>
-      <x:c r="G104" s="12"/>
-      <x:c r="H104" s="12"/>
-      <x:c r="I104" s="12"/>
-      <x:c r="J104" s="12"/>
-      <x:c r="K104" s="11"/>
-      <x:c r="L104" s="12"/>
-      <x:c r="M104" s="12"/>
-      <x:c r="N104" s="11"/>
-      <x:c r="O104" s="12"/>
-      <x:c r="P104" s="12"/>
-      <x:c r="Q104" s="12"/>
-      <x:c r="R104" s="12"/>
-      <x:c r="S104" s="12"/>
-      <x:c r="T104" s="12"/>
-      <x:c r="U104" s="11"/>
-      <x:c r="V104" s="12"/>
-      <x:c r="W104" s="12"/>
-      <x:c r="X104" s="12"/>
-      <x:c r="Y104" s="12"/>
-      <x:c r="Z104" s="12"/>
+      <x:c r="A104" s="10"/>
+      <x:c r="B104" s="10"/>
+      <x:c r="C104" s="5"/>
+      <x:c r="D104" s="10"/>
+      <x:c r="E104" s="10"/>
+      <x:c r="F104" s="9"/>
+      <x:c r="G104" s="10"/>
+      <x:c r="H104" s="10"/>
+      <x:c r="I104" s="10"/>
+      <x:c r="J104" s="10"/>
+      <x:c r="K104" s="9"/>
+      <x:c r="L104" s="10"/>
+      <x:c r="M104" s="10"/>
+      <x:c r="N104" s="9"/>
+      <x:c r="O104" s="10"/>
+      <x:c r="P104" s="10"/>
+      <x:c r="Q104" s="10"/>
+      <x:c r="R104" s="10"/>
+      <x:c r="S104" s="10"/>
+      <x:c r="T104" s="10"/>
+      <x:c r="U104" s="9"/>
+      <x:c r="V104" s="10"/>
+      <x:c r="W104" s="10"/>
+      <x:c r="X104" s="10"/>
+      <x:c r="Y104" s="10"/>
+      <x:c r="Z104" s="10"/>
     </x:row>
     <x:row r="105" spans="1:26">
-      <x:c r="A105" s="12"/>
-      <x:c r="B105" s="12"/>
-      <x:c r="C105" s="7"/>
-      <x:c r="D105" s="12"/>
-      <x:c r="E105" s="12"/>
-      <x:c r="F105" s="11"/>
-      <x:c r="G105" s="12"/>
-      <x:c r="H105" s="12"/>
-      <x:c r="I105" s="12"/>
-      <x:c r="J105" s="12"/>
-      <x:c r="K105" s="11"/>
-      <x:c r="L105" s="12"/>
-      <x:c r="M105" s="12"/>
-      <x:c r="N105" s="11"/>
-      <x:c r="O105" s="12"/>
-      <x:c r="P105" s="12"/>
-      <x:c r="Q105" s="12"/>
-      <x:c r="R105" s="12"/>
-      <x:c r="S105" s="12"/>
-      <x:c r="T105" s="12"/>
-      <x:c r="U105" s="11"/>
-      <x:c r="V105" s="12"/>
-      <x:c r="W105" s="12"/>
-      <x:c r="X105" s="12"/>
-      <x:c r="Y105" s="12"/>
-      <x:c r="Z105" s="12"/>
+      <x:c r="A105" s="10"/>
+      <x:c r="B105" s="10"/>
+      <x:c r="C105" s="5"/>
+      <x:c r="D105" s="10"/>
+      <x:c r="E105" s="10"/>
+      <x:c r="F105" s="9"/>
+      <x:c r="G105" s="10"/>
+      <x:c r="H105" s="10"/>
+      <x:c r="I105" s="10"/>
+      <x:c r="J105" s="10"/>
+      <x:c r="K105" s="9"/>
+      <x:c r="L105" s="10"/>
+      <x:c r="M105" s="10"/>
+      <x:c r="N105" s="9"/>
+      <x:c r="O105" s="10"/>
+      <x:c r="P105" s="10"/>
+      <x:c r="Q105" s="10"/>
+      <x:c r="R105" s="10"/>
+      <x:c r="S105" s="10"/>
+      <x:c r="T105" s="10"/>
+      <x:c r="U105" s="9"/>
+      <x:c r="V105" s="10"/>
+      <x:c r="W105" s="10"/>
+      <x:c r="X105" s="10"/>
+      <x:c r="Y105" s="10"/>
+      <x:c r="Z105" s="10"/>
     </x:row>
     <x:row r="106" spans="1:26">
-      <x:c r="A106" s="12"/>
-      <x:c r="B106" s="12"/>
-      <x:c r="C106" s="7"/>
-      <x:c r="D106" s="12"/>
-      <x:c r="E106" s="12"/>
-      <x:c r="F106" s="11"/>
-      <x:c r="G106" s="12"/>
-      <x:c r="H106" s="12"/>
-      <x:c r="I106" s="12"/>
-      <x:c r="J106" s="12"/>
-      <x:c r="K106" s="11"/>
-      <x:c r="L106" s="12"/>
-      <x:c r="M106" s="12"/>
-      <x:c r="N106" s="11"/>
-      <x:c r="O106" s="12"/>
-      <x:c r="P106" s="12"/>
-      <x:c r="Q106" s="12"/>
-      <x:c r="R106" s="12"/>
-      <x:c r="S106" s="12"/>
-      <x:c r="T106" s="12"/>
-      <x:c r="U106" s="11"/>
-      <x:c r="V106" s="12"/>
-      <x:c r="W106" s="12"/>
-      <x:c r="X106" s="12"/>
-      <x:c r="Y106" s="12"/>
-      <x:c r="Z106" s="12"/>
+      <x:c r="A106" s="10"/>
+      <x:c r="B106" s="10"/>
+      <x:c r="C106" s="5"/>
+      <x:c r="D106" s="10"/>
+      <x:c r="E106" s="10"/>
+      <x:c r="F106" s="9"/>
+      <x:c r="G106" s="10"/>
+      <x:c r="H106" s="10"/>
+      <x:c r="I106" s="10"/>
+      <x:c r="J106" s="10"/>
+      <x:c r="K106" s="9"/>
+      <x:c r="L106" s="10"/>
+      <x:c r="M106" s="10"/>
+      <x:c r="N106" s="9"/>
+      <x:c r="O106" s="10"/>
+      <x:c r="P106" s="10"/>
+      <x:c r="Q106" s="10"/>
+      <x:c r="R106" s="10"/>
+      <x:c r="S106" s="10"/>
+      <x:c r="T106" s="10"/>
+      <x:c r="U106" s="9"/>
+      <x:c r="V106" s="10"/>
+      <x:c r="W106" s="10"/>
+      <x:c r="X106" s="10"/>
+      <x:c r="Y106" s="10"/>
+      <x:c r="Z106" s="10"/>
     </x:row>
     <x:row r="107" spans="1:26">
-      <x:c r="A107" s="12"/>
-      <x:c r="B107" s="12"/>
-      <x:c r="C107" s="7"/>
-      <x:c r="D107" s="12"/>
-      <x:c r="E107" s="12"/>
-      <x:c r="F107" s="11"/>
-      <x:c r="G107" s="12"/>
-      <x:c r="H107" s="12"/>
-      <x:c r="I107" s="12"/>
-      <x:c r="J107" s="12"/>
-      <x:c r="K107" s="11"/>
-      <x:c r="L107" s="12"/>
-      <x:c r="M107" s="12"/>
-      <x:c r="N107" s="11"/>
-      <x:c r="O107" s="12"/>
-      <x:c r="P107" s="12"/>
-      <x:c r="Q107" s="12"/>
-      <x:c r="R107" s="12"/>
-      <x:c r="S107" s="12"/>
-      <x:c r="T107" s="12"/>
-      <x:c r="U107" s="11"/>
-      <x:c r="V107" s="12"/>
-      <x:c r="W107" s="12"/>
-      <x:c r="X107" s="12"/>
-      <x:c r="Y107" s="12"/>
-      <x:c r="Z107" s="12"/>
+      <x:c r="A107" s="10"/>
+      <x:c r="B107" s="10"/>
+      <x:c r="C107" s="5"/>
+      <x:c r="D107" s="10"/>
+      <x:c r="E107" s="10"/>
+      <x:c r="F107" s="9"/>
+      <x:c r="G107" s="10"/>
+      <x:c r="H107" s="10"/>
+      <x:c r="I107" s="10"/>
+      <x:c r="J107" s="10"/>
+      <x:c r="K107" s="9"/>
+      <x:c r="L107" s="10"/>
+      <x:c r="M107" s="10"/>
+      <x:c r="N107" s="9"/>
+      <x:c r="O107" s="10"/>
+      <x:c r="P107" s="10"/>
+      <x:c r="Q107" s="10"/>
+      <x:c r="R107" s="10"/>
+      <x:c r="S107" s="10"/>
+      <x:c r="T107" s="10"/>
+      <x:c r="U107" s="9"/>
+      <x:c r="V107" s="10"/>
+      <x:c r="W107" s="10"/>
+      <x:c r="X107" s="10"/>
+      <x:c r="Y107" s="10"/>
+      <x:c r="Z107" s="10"/>
     </x:row>
     <x:row r="108" spans="1:26">
-      <x:c r="A108" s="12"/>
-      <x:c r="B108" s="12"/>
-      <x:c r="C108" s="7"/>
-      <x:c r="D108" s="12"/>
-      <x:c r="E108" s="12"/>
-      <x:c r="F108" s="11"/>
-      <x:c r="G108" s="12"/>
-      <x:c r="H108" s="12"/>
-      <x:c r="I108" s="12"/>
-      <x:c r="J108" s="12"/>
-      <x:c r="K108" s="11"/>
-      <x:c r="L108" s="12"/>
-      <x:c r="M108" s="12"/>
-      <x:c r="N108" s="11"/>
-      <x:c r="O108" s="12"/>
-      <x:c r="P108" s="12"/>
-      <x:c r="Q108" s="12"/>
-      <x:c r="R108" s="12"/>
-      <x:c r="S108" s="12"/>
-      <x:c r="T108" s="12"/>
-      <x:c r="U108" s="11"/>
-      <x:c r="V108" s="12"/>
-      <x:c r="W108" s="12"/>
-      <x:c r="X108" s="12"/>
-      <x:c r="Y108" s="12"/>
-      <x:c r="Z108" s="12"/>
+      <x:c r="A108" s="10"/>
+      <x:c r="B108" s="10"/>
+      <x:c r="C108" s="5"/>
+      <x:c r="D108" s="10"/>
+      <x:c r="E108" s="10"/>
+      <x:c r="F108" s="9"/>
+      <x:c r="G108" s="10"/>
+      <x:c r="H108" s="10"/>
+      <x:c r="I108" s="10"/>
+      <x:c r="J108" s="10"/>
+      <x:c r="K108" s="9"/>
+      <x:c r="L108" s="10"/>
+      <x:c r="M108" s="10"/>
+      <x:c r="N108" s="9"/>
+      <x:c r="O108" s="10"/>
+      <x:c r="P108" s="10"/>
+      <x:c r="Q108" s="10"/>
+      <x:c r="R108" s="10"/>
+      <x:c r="S108" s="10"/>
+      <x:c r="T108" s="10"/>
+      <x:c r="U108" s="9"/>
+      <x:c r="V108" s="10"/>
+      <x:c r="W108" s="10"/>
+      <x:c r="X108" s="10"/>
+      <x:c r="Y108" s="10"/>
+      <x:c r="Z108" s="10"/>
     </x:row>
     <x:row r="109" spans="1:26">
-      <x:c r="A109" s="12"/>
-      <x:c r="B109" s="12"/>
-      <x:c r="C109" s="7"/>
-      <x:c r="D109" s="12"/>
-      <x:c r="E109" s="12"/>
-      <x:c r="F109" s="11"/>
-      <x:c r="G109" s="12"/>
-      <x:c r="H109" s="12"/>
-      <x:c r="I109" s="12"/>
-      <x:c r="J109" s="12"/>
-      <x:c r="K109" s="11"/>
-      <x:c r="L109" s="12"/>
-      <x:c r="M109" s="12"/>
-      <x:c r="N109" s="11"/>
-      <x:c r="O109" s="12"/>
-      <x:c r="P109" s="12"/>
-      <x:c r="Q109" s="12"/>
-      <x:c r="R109" s="12"/>
-      <x:c r="S109" s="12"/>
-      <x:c r="T109" s="12"/>
-      <x:c r="U109" s="11"/>
-      <x:c r="V109" s="12"/>
-      <x:c r="W109" s="12"/>
-      <x:c r="X109" s="12"/>
-      <x:c r="Y109" s="12"/>
-      <x:c r="Z109" s="12"/>
+      <x:c r="A109" s="10"/>
+      <x:c r="B109" s="10"/>
+      <x:c r="C109" s="5"/>
+      <x:c r="D109" s="10"/>
+      <x:c r="E109" s="10"/>
+      <x:c r="F109" s="9"/>
+      <x:c r="G109" s="10"/>
+      <x:c r="H109" s="10"/>
+      <x:c r="I109" s="10"/>
+      <x:c r="J109" s="10"/>
+      <x:c r="K109" s="9"/>
+      <x:c r="L109" s="10"/>
+      <x:c r="M109" s="10"/>
+      <x:c r="N109" s="9"/>
+      <x:c r="O109" s="10"/>
+      <x:c r="P109" s="10"/>
+      <x:c r="Q109" s="10"/>
+      <x:c r="R109" s="10"/>
+      <x:c r="S109" s="10"/>
+      <x:c r="T109" s="10"/>
+      <x:c r="U109" s="9"/>
+      <x:c r="V109" s="10"/>
+      <x:c r="W109" s="10"/>
+      <x:c r="X109" s="10"/>
+      <x:c r="Y109" s="10"/>
+      <x:c r="Z109" s="10"/>
     </x:row>
     <x:row r="110" spans="1:26">
-      <x:c r="A110" s="12"/>
-      <x:c r="B110" s="12"/>
-      <x:c r="C110" s="7"/>
-      <x:c r="D110" s="12"/>
-      <x:c r="E110" s="12"/>
-      <x:c r="F110" s="11"/>
-      <x:c r="G110" s="12"/>
-      <x:c r="H110" s="12"/>
-      <x:c r="I110" s="12"/>
-      <x:c r="J110" s="12"/>
-      <x:c r="K110" s="11"/>
-      <x:c r="L110" s="12"/>
-      <x:c r="M110" s="12"/>
-      <x:c r="N110" s="11"/>
-      <x:c r="O110" s="12"/>
-      <x:c r="P110" s="12"/>
-      <x:c r="Q110" s="12"/>
-      <x:c r="R110" s="12"/>
-      <x:c r="S110" s="12"/>
-      <x:c r="T110" s="12"/>
-      <x:c r="U110" s="11"/>
-      <x:c r="V110" s="12"/>
-      <x:c r="W110" s="12"/>
-      <x:c r="X110" s="12"/>
-      <x:c r="Y110" s="12"/>
-      <x:c r="Z110" s="12"/>
+      <x:c r="A110" s="10"/>
+      <x:c r="B110" s="10"/>
+      <x:c r="C110" s="5"/>
+      <x:c r="D110" s="10"/>
+      <x:c r="E110" s="10"/>
+      <x:c r="F110" s="9"/>
+      <x:c r="G110" s="10"/>
+      <x:c r="H110" s="10"/>
+      <x:c r="I110" s="10"/>
+      <x:c r="J110" s="10"/>
+      <x:c r="K110" s="9"/>
+      <x:c r="L110" s="10"/>
+      <x:c r="M110" s="10"/>
+      <x:c r="N110" s="9"/>
+      <x:c r="O110" s="10"/>
+      <x:c r="P110" s="10"/>
+      <x:c r="Q110" s="10"/>
+      <x:c r="R110" s="10"/>
+      <x:c r="S110" s="10"/>
+      <x:c r="T110" s="10"/>
+      <x:c r="U110" s="9"/>
+      <x:c r="V110" s="10"/>
+      <x:c r="W110" s="10"/>
+      <x:c r="X110" s="10"/>
+      <x:c r="Y110" s="10"/>
+      <x:c r="Z110" s="10"/>
     </x:row>
     <x:row r="111" spans="1:26">
-      <x:c r="A111" s="12"/>
-      <x:c r="B111" s="12"/>
-      <x:c r="C111" s="7"/>
-      <x:c r="D111" s="12"/>
-      <x:c r="E111" s="12"/>
-      <x:c r="F111" s="11"/>
-      <x:c r="G111" s="12"/>
-      <x:c r="H111" s="12"/>
-      <x:c r="I111" s="12"/>
-      <x:c r="J111" s="12"/>
-      <x:c r="K111" s="11"/>
-      <x:c r="L111" s="12"/>
-      <x:c r="M111" s="12"/>
-      <x:c r="N111" s="11"/>
-      <x:c r="O111" s="12"/>
-      <x:c r="P111" s="12"/>
-      <x:c r="Q111" s="12"/>
-      <x:c r="R111" s="12"/>
-      <x:c r="S111" s="12"/>
-      <x:c r="T111" s="12"/>
-      <x:c r="U111" s="11"/>
-      <x:c r="V111" s="12"/>
-      <x:c r="W111" s="12"/>
-      <x:c r="X111" s="12"/>
-      <x:c r="Y111" s="12"/>
-      <x:c r="Z111" s="12"/>
+      <x:c r="A111" s="10"/>
+      <x:c r="B111" s="10"/>
+      <x:c r="C111" s="5"/>
+      <x:c r="D111" s="10"/>
+      <x:c r="E111" s="10"/>
+      <x:c r="F111" s="9"/>
+      <x:c r="G111" s="10"/>
+      <x:c r="H111" s="10"/>
+      <x:c r="I111" s="10"/>
+      <x:c r="J111" s="10"/>
+      <x:c r="K111" s="9"/>
+      <x:c r="L111" s="10"/>
+      <x:c r="M111" s="10"/>
+      <x:c r="N111" s="9"/>
+      <x:c r="O111" s="10"/>
+      <x:c r="P111" s="10"/>
+      <x:c r="Q111" s="10"/>
+      <x:c r="R111" s="10"/>
+      <x:c r="S111" s="10"/>
+      <x:c r="T111" s="10"/>
+      <x:c r="U111" s="9"/>
+      <x:c r="V111" s="10"/>
+      <x:c r="W111" s="10"/>
+      <x:c r="X111" s="10"/>
+      <x:c r="Y111" s="10"/>
+      <x:c r="Z111" s="10"/>
     </x:row>
     <x:row r="112" spans="1:26">
-      <x:c r="A112" s="12"/>
-      <x:c r="B112" s="12"/>
-      <x:c r="C112" s="7"/>
-      <x:c r="D112" s="12"/>
-      <x:c r="E112" s="12"/>
-      <x:c r="F112" s="11"/>
-      <x:c r="G112" s="12"/>
-      <x:c r="H112" s="12"/>
-      <x:c r="I112" s="12"/>
-      <x:c r="J112" s="12"/>
-      <x:c r="K112" s="11"/>
-      <x:c r="L112" s="12"/>
-      <x:c r="M112" s="12"/>
-      <x:c r="N112" s="11"/>
-      <x:c r="O112" s="12"/>
-      <x:c r="P112" s="12"/>
-      <x:c r="Q112" s="12"/>
-      <x:c r="R112" s="12"/>
-      <x:c r="S112" s="12"/>
-      <x:c r="T112" s="12"/>
-      <x:c r="U112" s="11"/>
-      <x:c r="V112" s="12"/>
-      <x:c r="W112" s="12"/>
-      <x:c r="X112" s="12"/>
-      <x:c r="Y112" s="12"/>
-      <x:c r="Z112" s="12"/>
+      <x:c r="A112" s="10"/>
+      <x:c r="B112" s="10"/>
+      <x:c r="C112" s="5"/>
+      <x:c r="D112" s="10"/>
+      <x:c r="E112" s="10"/>
+      <x:c r="F112" s="9"/>
+      <x:c r="G112" s="10"/>
+      <x:c r="H112" s="10"/>
+      <x:c r="I112" s="10"/>
+      <x:c r="J112" s="10"/>
+      <x:c r="K112" s="9"/>
+      <x:c r="L112" s="10"/>
+      <x:c r="M112" s="10"/>
+      <x:c r="N112" s="9"/>
+      <x:c r="O112" s="10"/>
+      <x:c r="P112" s="10"/>
+      <x:c r="Q112" s="10"/>
+      <x:c r="R112" s="10"/>
+      <x:c r="S112" s="10"/>
+      <x:c r="T112" s="10"/>
+      <x:c r="U112" s="9"/>
+      <x:c r="V112" s="10"/>
+      <x:c r="W112" s="10"/>
+      <x:c r="X112" s="10"/>
+      <x:c r="Y112" s="10"/>
+      <x:c r="Z112" s="10"/>
     </x:row>
     <x:row r="113" spans="1:26">
-      <x:c r="A113" s="12"/>
-      <x:c r="B113" s="12"/>
-      <x:c r="C113" s="7"/>
-      <x:c r="D113" s="12"/>
-      <x:c r="E113" s="12"/>
-      <x:c r="F113" s="11"/>
-      <x:c r="G113" s="12"/>
-      <x:c r="H113" s="12"/>
-      <x:c r="I113" s="12"/>
-      <x:c r="J113" s="12"/>
-      <x:c r="K113" s="11"/>
-      <x:c r="L113" s="12"/>
-      <x:c r="M113" s="12"/>
-      <x:c r="N113" s="11"/>
-      <x:c r="O113" s="12"/>
-      <x:c r="P113" s="12"/>
-      <x:c r="Q113" s="12"/>
-      <x:c r="R113" s="12"/>
-      <x:c r="S113" s="12"/>
-      <x:c r="T113" s="12"/>
-      <x:c r="U113" s="11"/>
-      <x:c r="V113" s="12"/>
-      <x:c r="W113" s="12"/>
-      <x:c r="X113" s="12"/>
-      <x:c r="Y113" s="12"/>
-      <x:c r="Z113" s="12"/>
+      <x:c r="A113" s="10"/>
+      <x:c r="B113" s="10"/>
+      <x:c r="C113" s="5"/>
+      <x:c r="D113" s="10"/>
+      <x:c r="E113" s="10"/>
+      <x:c r="F113" s="9"/>
+      <x:c r="G113" s="10"/>
+      <x:c r="H113" s="10"/>
+      <x:c r="I113" s="10"/>
+      <x:c r="J113" s="10"/>
+      <x:c r="K113" s="9"/>
+      <x:c r="L113" s="10"/>
+      <x:c r="M113" s="10"/>
+      <x:c r="N113" s="9"/>
+      <x:c r="O113" s="10"/>
+      <x:c r="P113" s="10"/>
+      <x:c r="Q113" s="10"/>
+      <x:c r="R113" s="10"/>
+      <x:c r="S113" s="10"/>
+      <x:c r="T113" s="10"/>
+      <x:c r="U113" s="9"/>
+      <x:c r="V113" s="10"/>
+      <x:c r="W113" s="10"/>
+      <x:c r="X113" s="10"/>
+      <x:c r="Y113" s="10"/>
+      <x:c r="Z113" s="10"/>
     </x:row>
     <x:row r="114" spans="1:26">
-      <x:c r="A114" s="12"/>
-      <x:c r="B114" s="12"/>
-      <x:c r="C114" s="7"/>
-      <x:c r="D114" s="12"/>
-      <x:c r="E114" s="12"/>
-      <x:c r="F114" s="11"/>
-      <x:c r="G114" s="12"/>
-      <x:c r="H114" s="12"/>
-      <x:c r="I114" s="12"/>
-      <x:c r="J114" s="12"/>
-      <x:c r="K114" s="11"/>
-      <x:c r="L114" s="12"/>
-      <x:c r="M114" s="12"/>
-      <x:c r="N114" s="11"/>
-      <x:c r="O114" s="12"/>
-      <x:c r="P114" s="12"/>
-      <x:c r="Q114" s="12"/>
-      <x:c r="R114" s="12"/>
-      <x:c r="S114" s="12"/>
-      <x:c r="T114" s="12"/>
-      <x:c r="U114" s="11"/>
-      <x:c r="V114" s="12"/>
-      <x:c r="W114" s="12"/>
-      <x:c r="X114" s="12"/>
-      <x:c r="Y114" s="12"/>
-      <x:c r="Z114" s="12"/>
+      <x:c r="A114" s="10"/>
+      <x:c r="B114" s="10"/>
+      <x:c r="C114" s="5"/>
+      <x:c r="D114" s="10"/>
+      <x:c r="E114" s="10"/>
+      <x:c r="F114" s="9"/>
+      <x:c r="G114" s="10"/>
+      <x:c r="H114" s="10"/>
+      <x:c r="I114" s="10"/>
+      <x:c r="J114" s="10"/>
+      <x:c r="K114" s="9"/>
+      <x:c r="L114" s="10"/>
+      <x:c r="M114" s="10"/>
+      <x:c r="N114" s="9"/>
+      <x:c r="O114" s="10"/>
+      <x:c r="P114" s="10"/>
+      <x:c r="Q114" s="10"/>
+      <x:c r="R114" s="10"/>
+      <x:c r="S114" s="10"/>
+      <x:c r="T114" s="10"/>
+      <x:c r="U114" s="9"/>
+      <x:c r="V114" s="10"/>
+      <x:c r="W114" s="10"/>
+      <x:c r="X114" s="10"/>
+      <x:c r="Y114" s="10"/>
+      <x:c r="Z114" s="10"/>
     </x:row>
     <x:row r="115" spans="1:26">
-      <x:c r="A115" s="12"/>
-      <x:c r="B115" s="12"/>
-      <x:c r="C115" s="7"/>
-      <x:c r="D115" s="12"/>
-      <x:c r="E115" s="12"/>
-      <x:c r="F115" s="11"/>
-      <x:c r="G115" s="12"/>
-      <x:c r="H115" s="12"/>
-      <x:c r="I115" s="12"/>
-      <x:c r="J115" s="12"/>
-      <x:c r="K115" s="11"/>
-      <x:c r="L115" s="12"/>
-      <x:c r="M115" s="12"/>
-      <x:c r="N115" s="11"/>
-      <x:c r="O115" s="12"/>
-      <x:c r="P115" s="12"/>
-      <x:c r="Q115" s="12"/>
-      <x:c r="R115" s="12"/>
-      <x:c r="S115" s="12"/>
-      <x:c r="T115" s="12"/>
-      <x:c r="U115" s="11"/>
-      <x:c r="V115" s="12"/>
-      <x:c r="W115" s="12"/>
-      <x:c r="X115" s="12"/>
-      <x:c r="Y115" s="12"/>
-      <x:c r="Z115" s="12"/>
+      <x:c r="A115" s="10"/>
+      <x:c r="B115" s="10"/>
+      <x:c r="C115" s="5"/>
+      <x:c r="D115" s="10"/>
+      <x:c r="E115" s="10"/>
+      <x:c r="F115" s="9"/>
+      <x:c r="G115" s="10"/>
+      <x:c r="H115" s="10"/>
+      <x:c r="I115" s="10"/>
+      <x:c r="J115" s="10"/>
+      <x:c r="K115" s="9"/>
+      <x:c r="L115" s="10"/>
+      <x:c r="M115" s="10"/>
+      <x:c r="N115" s="9"/>
+      <x:c r="O115" s="10"/>
+      <x:c r="P115" s="10"/>
+      <x:c r="Q115" s="10"/>
+      <x:c r="R115" s="10"/>
+      <x:c r="S115" s="10"/>
+      <x:c r="T115" s="10"/>
+      <x:c r="U115" s="9"/>
+      <x:c r="V115" s="10"/>
+      <x:c r="W115" s="10"/>
+      <x:c r="X115" s="10"/>
+      <x:c r="Y115" s="10"/>
+      <x:c r="Z115" s="10"/>
     </x:row>
     <x:row r="116" spans="1:26">
-      <x:c r="A116" s="12"/>
-      <x:c r="B116" s="12"/>
-      <x:c r="C116" s="7"/>
-      <x:c r="D116" s="12"/>
-      <x:c r="E116" s="12"/>
-      <x:c r="F116" s="11"/>
-      <x:c r="G116" s="12"/>
-      <x:c r="H116" s="12"/>
-      <x:c r="I116" s="12"/>
-      <x:c r="J116" s="12"/>
-      <x:c r="K116" s="11"/>
-      <x:c r="L116" s="12"/>
-      <x:c r="M116" s="12"/>
-      <x:c r="N116" s="11"/>
-      <x:c r="O116" s="12"/>
-      <x:c r="P116" s="12"/>
-      <x:c r="Q116" s="12"/>
-      <x:c r="R116" s="12"/>
-      <x:c r="S116" s="12"/>
-      <x:c r="T116" s="12"/>
-      <x:c r="U116" s="11"/>
-      <x:c r="V116" s="12"/>
-      <x:c r="W116" s="12"/>
-      <x:c r="X116" s="12"/>
-      <x:c r="Y116" s="12"/>
-      <x:c r="Z116" s="12"/>
+      <x:c r="A116" s="10"/>
+      <x:c r="B116" s="10"/>
+      <x:c r="C116" s="5"/>
+      <x:c r="D116" s="10"/>
+      <x:c r="E116" s="10"/>
+      <x:c r="F116" s="9"/>
+      <x:c r="G116" s="10"/>
+      <x:c r="H116" s="10"/>
+      <x:c r="I116" s="10"/>
+      <x:c r="J116" s="10"/>
+      <x:c r="K116" s="9"/>
+      <x:c r="L116" s="10"/>
+      <x:c r="M116" s="10"/>
+      <x:c r="N116" s="9"/>
+      <x:c r="O116" s="10"/>
+      <x:c r="P116" s="10"/>
+      <x:c r="Q116" s="10"/>
+      <x:c r="R116" s="10"/>
+      <x:c r="S116" s="10"/>
+      <x:c r="T116" s="10"/>
+      <x:c r="U116" s="9"/>
+      <x:c r="V116" s="10"/>
+      <x:c r="W116" s="10"/>
+      <x:c r="X116" s="10"/>
+      <x:c r="Y116" s="10"/>
+      <x:c r="Z116" s="10"/>
     </x:row>
     <x:row r="117" spans="1:26">
-      <x:c r="A117" s="12"/>
-      <x:c r="B117" s="12"/>
-      <x:c r="C117" s="7"/>
-      <x:c r="D117" s="12"/>
-      <x:c r="E117" s="12"/>
-      <x:c r="F117" s="11"/>
-      <x:c r="G117" s="12"/>
-      <x:c r="H117" s="12"/>
-      <x:c r="I117" s="12"/>
-      <x:c r="J117" s="12"/>
-      <x:c r="K117" s="11"/>
-      <x:c r="L117" s="12"/>
-      <x:c r="M117" s="12"/>
-      <x:c r="N117" s="11"/>
-      <x:c r="O117" s="12"/>
-      <x:c r="P117" s="12"/>
-      <x:c r="Q117" s="12"/>
-      <x:c r="R117" s="12"/>
-      <x:c r="S117" s="12"/>
-      <x:c r="T117" s="12"/>
-      <x:c r="U117" s="11"/>
-      <x:c r="V117" s="12"/>
-      <x:c r="W117" s="12"/>
-      <x:c r="X117" s="12"/>
-      <x:c r="Y117" s="12"/>
-      <x:c r="Z117" s="12"/>
+      <x:c r="A117" s="10"/>
+      <x:c r="B117" s="10"/>
+      <x:c r="C117" s="5"/>
+      <x:c r="D117" s="10"/>
+      <x:c r="E117" s="10"/>
+      <x:c r="F117" s="9"/>
+      <x:c r="G117" s="10"/>
+      <x:c r="H117" s="10"/>
+      <x:c r="I117" s="10"/>
+      <x:c r="J117" s="10"/>
+      <x:c r="K117" s="9"/>
+      <x:c r="L117" s="10"/>
+      <x:c r="M117" s="10"/>
+      <x:c r="N117" s="9"/>
+      <x:c r="O117" s="10"/>
+      <x:c r="P117" s="10"/>
+      <x:c r="Q117" s="10"/>
+      <x:c r="R117" s="10"/>
+      <x:c r="S117" s="10"/>
+      <x:c r="T117" s="10"/>
+      <x:c r="U117" s="9"/>
+      <x:c r="V117" s="10"/>
+      <x:c r="W117" s="10"/>
+      <x:c r="X117" s="10"/>
+      <x:c r="Y117" s="10"/>
+      <x:c r="Z117" s="10"/>
     </x:row>
     <x:row r="118" spans="1:26">
-      <x:c r="A118" s="12"/>
-      <x:c r="B118" s="12"/>
-      <x:c r="C118" s="7"/>
-      <x:c r="D118" s="12"/>
-      <x:c r="E118" s="12"/>
-      <x:c r="F118" s="11"/>
-      <x:c r="G118" s="12"/>
-      <x:c r="H118" s="12"/>
-      <x:c r="I118" s="12"/>
-      <x:c r="J118" s="12"/>
-      <x:c r="K118" s="11"/>
-      <x:c r="L118" s="12"/>
-      <x:c r="M118" s="12"/>
-      <x:c r="N118" s="11"/>
-      <x:c r="O118" s="12"/>
-      <x:c r="P118" s="12"/>
-      <x:c r="Q118" s="12"/>
-      <x:c r="R118" s="12"/>
-      <x:c r="S118" s="12"/>
-      <x:c r="T118" s="12"/>
-      <x:c r="U118" s="11"/>
-      <x:c r="V118" s="12"/>
-      <x:c r="W118" s="12"/>
-      <x:c r="X118" s="12"/>
-      <x:c r="Y118" s="12"/>
-      <x:c r="Z118" s="12"/>
+      <x:c r="A118" s="10"/>
+      <x:c r="B118" s="10"/>
+      <x:c r="C118" s="5"/>
+      <x:c r="D118" s="10"/>
+      <x:c r="E118" s="10"/>
+      <x:c r="F118" s="9"/>
+      <x:c r="G118" s="10"/>
+      <x:c r="H118" s="10"/>
+      <x:c r="I118" s="10"/>
+      <x:c r="J118" s="10"/>
+      <x:c r="K118" s="9"/>
+      <x:c r="L118" s="10"/>
+      <x:c r="M118" s="10"/>
+      <x:c r="N118" s="9"/>
+      <x:c r="O118" s="10"/>
+      <x:c r="P118" s="10"/>
+      <x:c r="Q118" s="10"/>
+      <x:c r="R118" s="10"/>
+      <x:c r="S118" s="10"/>
+      <x:c r="T118" s="10"/>
+      <x:c r="U118" s="9"/>
+      <x:c r="V118" s="10"/>
+      <x:c r="W118" s="10"/>
+      <x:c r="X118" s="10"/>
+      <x:c r="Y118" s="10"/>
+      <x:c r="Z118" s="10"/>
     </x:row>
     <x:row r="119" spans="1:26">
-      <x:c r="A119" s="12"/>
-      <x:c r="B119" s="12"/>
-      <x:c r="C119" s="7"/>
-      <x:c r="D119" s="12"/>
-      <x:c r="E119" s="12"/>
-      <x:c r="F119" s="11"/>
-      <x:c r="G119" s="12"/>
-      <x:c r="H119" s="12"/>
-      <x:c r="I119" s="12"/>
-      <x:c r="J119" s="12"/>
-      <x:c r="K119" s="11"/>
-      <x:c r="L119" s="12"/>
-      <x:c r="M119" s="12"/>
-      <x:c r="N119" s="11"/>
-      <x:c r="O119" s="12"/>
-      <x:c r="P119" s="12"/>
-      <x:c r="Q119" s="12"/>
-      <x:c r="R119" s="12"/>
-      <x:c r="S119" s="12"/>
-      <x:c r="T119" s="12"/>
-      <x:c r="U119" s="11"/>
-      <x:c r="V119" s="12"/>
-      <x:c r="W119" s="12"/>
-      <x:c r="X119" s="12"/>
-      <x:c r="Y119" s="12"/>
-      <x:c r="Z119" s="12"/>
+      <x:c r="A119" s="10"/>
+      <x:c r="B119" s="10"/>
+      <x:c r="C119" s="5"/>
+      <x:c r="D119" s="10"/>
+      <x:c r="E119" s="10"/>
+      <x:c r="F119" s="9"/>
+      <x:c r="G119" s="10"/>
+      <x:c r="H119" s="10"/>
+      <x:c r="I119" s="10"/>
+      <x:c r="J119" s="10"/>
+      <x:c r="K119" s="9"/>
+      <x:c r="L119" s="10"/>
+      <x:c r="M119" s="10"/>
+      <x:c r="N119" s="9"/>
+      <x:c r="O119" s="10"/>
+      <x:c r="P119" s="10"/>
+      <x:c r="Q119" s="10"/>
+      <x:c r="R119" s="10"/>
+      <x:c r="S119" s="10"/>
+      <x:c r="T119" s="10"/>
+      <x:c r="U119" s="9"/>
+      <x:c r="V119" s="10"/>
+      <x:c r="W119" s="10"/>
+      <x:c r="X119" s="10"/>
+      <x:c r="Y119" s="10"/>
+      <x:c r="Z119" s="10"/>
     </x:row>
     <x:row r="120" spans="1:26">
-      <x:c r="A120" s="12"/>
-      <x:c r="B120" s="12"/>
-      <x:c r="C120" s="7"/>
-      <x:c r="D120" s="12"/>
-      <x:c r="E120" s="12"/>
-      <x:c r="F120" s="11"/>
-      <x:c r="G120" s="12"/>
-      <x:c r="H120" s="12"/>
-      <x:c r="I120" s="12"/>
-      <x:c r="J120" s="12"/>
-      <x:c r="K120" s="11"/>
-      <x:c r="L120" s="12"/>
-      <x:c r="M120" s="12"/>
-      <x:c r="N120" s="11"/>
-      <x:c r="O120" s="12"/>
-      <x:c r="P120" s="12"/>
-      <x:c r="Q120" s="12"/>
-      <x:c r="R120" s="12"/>
-      <x:c r="S120" s="12"/>
-      <x:c r="T120" s="12"/>
-      <x:c r="U120" s="11"/>
-      <x:c r="V120" s="12"/>
-      <x:c r="W120" s="12"/>
-      <x:c r="X120" s="12"/>
-      <x:c r="Y120" s="12"/>
-      <x:c r="Z120" s="12"/>
+      <x:c r="A120" s="10"/>
+      <x:c r="B120" s="10"/>
+      <x:c r="C120" s="5"/>
+      <x:c r="D120" s="10"/>
+      <x:c r="E120" s="10"/>
+      <x:c r="F120" s="9"/>
+      <x:c r="G120" s="10"/>
+      <x:c r="H120" s="10"/>
+      <x:c r="I120" s="10"/>
+      <x:c r="J120" s="10"/>
+      <x:c r="K120" s="9"/>
+      <x:c r="L120" s="10"/>
+      <x:c r="M120" s="10"/>
+      <x:c r="N120" s="9"/>
+      <x:c r="O120" s="10"/>
+      <x:c r="P120" s="10"/>
+      <x:c r="Q120" s="10"/>
+      <x:c r="R120" s="10"/>
+      <x:c r="S120" s="10"/>
+      <x:c r="T120" s="10"/>
+      <x:c r="U120" s="9"/>
+      <x:c r="V120" s="10"/>
+      <x:c r="W120" s="10"/>
+      <x:c r="X120" s="10"/>
+      <x:c r="Y120" s="10"/>
+      <x:c r="Z120" s="10"/>
     </x:row>
     <x:row r="121" spans="1:26">
-      <x:c r="A121" s="12"/>
-      <x:c r="B121" s="12"/>
-      <x:c r="C121" s="7"/>
-      <x:c r="D121" s="12"/>
-      <x:c r="E121" s="12"/>
-      <x:c r="F121" s="11"/>
-      <x:c r="G121" s="12"/>
-      <x:c r="H121" s="12"/>
-      <x:c r="I121" s="12"/>
-      <x:c r="J121" s="12"/>
-      <x:c r="K121" s="11"/>
-      <x:c r="L121" s="12"/>
-      <x:c r="M121" s="12"/>
-      <x:c r="N121" s="11"/>
-      <x:c r="O121" s="12"/>
-      <x:c r="P121" s="12"/>
-      <x:c r="Q121" s="12"/>
-      <x:c r="R121" s="12"/>
-      <x:c r="S121" s="12"/>
-      <x:c r="T121" s="12"/>
-      <x:c r="U121" s="11"/>
-      <x:c r="V121" s="12"/>
-      <x:c r="W121" s="12"/>
-      <x:c r="X121" s="12"/>
-      <x:c r="Y121" s="12"/>
-      <x:c r="Z121" s="12"/>
+      <x:c r="A121" s="10"/>
+      <x:c r="B121" s="10"/>
+      <x:c r="C121" s="5"/>
+      <x:c r="D121" s="10"/>
+      <x:c r="E121" s="10"/>
+      <x:c r="F121" s="9"/>
+      <x:c r="G121" s="10"/>
+      <x:c r="H121" s="10"/>
+      <x:c r="I121" s="10"/>
+      <x:c r="J121" s="10"/>
+      <x:c r="K121" s="9"/>
+      <x:c r="L121" s="10"/>
+      <x:c r="M121" s="10"/>
+      <x:c r="N121" s="9"/>
+      <x:c r="O121" s="10"/>
+      <x:c r="P121" s="10"/>
+      <x:c r="Q121" s="10"/>
+      <x:c r="R121" s="10"/>
+      <x:c r="S121" s="10"/>
+      <x:c r="T121" s="10"/>
+      <x:c r="U121" s="9"/>
+      <x:c r="V121" s="10"/>
+      <x:c r="W121" s="10"/>
+      <x:c r="X121" s="10"/>
+      <x:c r="Y121" s="10"/>
+      <x:c r="Z121" s="10"/>
     </x:row>
     <x:row r="122" spans="1:26">
-      <x:c r="A122" s="12"/>
-      <x:c r="B122" s="12"/>
-      <x:c r="C122" s="7"/>
-      <x:c r="D122" s="12"/>
-      <x:c r="E122" s="12"/>
-      <x:c r="F122" s="11"/>
-      <x:c r="G122" s="12"/>
-      <x:c r="H122" s="12"/>
-      <x:c r="I122" s="12"/>
-      <x:c r="J122" s="12"/>
-      <x:c r="K122" s="11"/>
-      <x:c r="L122" s="12"/>
-      <x:c r="M122" s="12"/>
-      <x:c r="N122" s="11"/>
-      <x:c r="O122" s="12"/>
-      <x:c r="P122" s="12"/>
-      <x:c r="Q122" s="12"/>
-      <x:c r="R122" s="12"/>
-      <x:c r="S122" s="12"/>
-      <x:c r="T122" s="12"/>
-      <x:c r="U122" s="11"/>
-      <x:c r="V122" s="12"/>
-      <x:c r="W122" s="12"/>
-      <x:c r="X122" s="12"/>
-      <x:c r="Y122" s="12"/>
-      <x:c r="Z122" s="12"/>
+      <x:c r="A122" s="10"/>
+      <x:c r="B122" s="10"/>
+      <x:c r="C122" s="5"/>
+      <x:c r="D122" s="10"/>
+      <x:c r="E122" s="10"/>
+      <x:c r="F122" s="9"/>
+      <x:c r="G122" s="10"/>
+      <x:c r="H122" s="10"/>
+      <x:c r="I122" s="10"/>
+      <x:c r="J122" s="10"/>
+      <x:c r="K122" s="9"/>
+      <x:c r="L122" s="10"/>
+      <x:c r="M122" s="10"/>
+      <x:c r="N122" s="9"/>
+      <x:c r="O122" s="10"/>
+      <x:c r="P122" s="10"/>
+      <x:c r="Q122" s="10"/>
+      <x:c r="R122" s="10"/>
+      <x:c r="S122" s="10"/>
+      <x:c r="T122" s="10"/>
+      <x:c r="U122" s="9"/>
+      <x:c r="V122" s="10"/>
+      <x:c r="W122" s="10"/>
+      <x:c r="X122" s="10"/>
+      <x:c r="Y122" s="10"/>
+      <x:c r="Z122" s="10"/>
     </x:row>
     <x:row r="123" spans="1:26">
-      <x:c r="A123" s="12"/>
-      <x:c r="B123" s="12"/>
-      <x:c r="C123" s="7"/>
-      <x:c r="D123" s="12"/>
-      <x:c r="E123" s="12"/>
-      <x:c r="F123" s="11"/>
-      <x:c r="G123" s="12"/>
-      <x:c r="H123" s="12"/>
-      <x:c r="I123" s="12"/>
-      <x:c r="J123" s="12"/>
-      <x:c r="K123" s="11"/>
-      <x:c r="L123" s="12"/>
-      <x:c r="M123" s="12"/>
-      <x:c r="N123" s="11"/>
-      <x:c r="O123" s="12"/>
-      <x:c r="P123" s="12"/>
-      <x:c r="Q123" s="12"/>
-      <x:c r="R123" s="12"/>
-      <x:c r="S123" s="12"/>
-      <x:c r="T123" s="12"/>
-      <x:c r="U123" s="11"/>
-      <x:c r="V123" s="12"/>
-      <x:c r="W123" s="12"/>
-      <x:c r="X123" s="12"/>
-      <x:c r="Y123" s="12"/>
-      <x:c r="Z123" s="12"/>
+      <x:c r="A123" s="10"/>
+      <x:c r="B123" s="10"/>
+      <x:c r="C123" s="5"/>
+      <x:c r="D123" s="10"/>
+      <x:c r="E123" s="10"/>
+      <x:c r="F123" s="9"/>
+      <x:c r="G123" s="10"/>
+      <x:c r="H123" s="10"/>
+      <x:c r="I123" s="10"/>
+      <x:c r="J123" s="10"/>
+      <x:c r="K123" s="9"/>
+      <x:c r="L123" s="10"/>
+      <x:c r="M123" s="10"/>
+      <x:c r="N123" s="9"/>
+      <x:c r="O123" s="10"/>
+      <x:c r="P123" s="10"/>
+      <x:c r="Q123" s="10"/>
+      <x:c r="R123" s="10"/>
+      <x:c r="S123" s="10"/>
+      <x:c r="T123" s="10"/>
+      <x:c r="U123" s="9"/>
+      <x:c r="V123" s="10"/>
+      <x:c r="W123" s="10"/>
+      <x:c r="X123" s="10"/>
+      <x:c r="Y123" s="10"/>
+      <x:c r="Z123" s="10"/>
     </x:row>
     <x:row r="124" spans="1:26">
-      <x:c r="A124" s="12"/>
-      <x:c r="B124" s="12"/>
-      <x:c r="C124" s="7"/>
-      <x:c r="D124" s="12"/>
-      <x:c r="E124" s="12"/>
-      <x:c r="F124" s="11"/>
-      <x:c r="G124" s="12"/>
-      <x:c r="H124" s="12"/>
-      <x:c r="I124" s="12"/>
-      <x:c r="J124" s="12"/>
-      <x:c r="K124" s="11"/>
-      <x:c r="L124" s="12"/>
-      <x:c r="M124" s="12"/>
-      <x:c r="N124" s="11"/>
-      <x:c r="O124" s="12"/>
-      <x:c r="P124" s="12"/>
-      <x:c r="Q124" s="12"/>
-      <x:c r="R124" s="12"/>
-      <x:c r="S124" s="12"/>
-      <x:c r="T124" s="12"/>
-      <x:c r="U124" s="11"/>
-      <x:c r="V124" s="12"/>
-      <x:c r="W124" s="12"/>
-      <x:c r="X124" s="12"/>
-      <x:c r="Y124" s="12"/>
-      <x:c r="Z124" s="12"/>
+      <x:c r="A124" s="10"/>
+      <x:c r="B124" s="10"/>
+      <x:c r="C124" s="5"/>
+      <x:c r="D124" s="10"/>
+      <x:c r="E124" s="10"/>
+      <x:c r="F124" s="9"/>
+      <x:c r="G124" s="10"/>
+      <x:c r="H124" s="10"/>
+      <x:c r="I124" s="10"/>
+      <x:c r="J124" s="10"/>
+      <x:c r="K124" s="9"/>
+      <x:c r="L124" s="10"/>
+      <x:c r="M124" s="10"/>
+      <x:c r="N124" s="9"/>
+      <x:c r="O124" s="10"/>
+      <x:c r="P124" s="10"/>
+      <x:c r="Q124" s="10"/>
+      <x:c r="R124" s="10"/>
+      <x:c r="S124" s="10"/>
+      <x:c r="T124" s="10"/>
+      <x:c r="U124" s="9"/>
+      <x:c r="V124" s="10"/>
+      <x:c r="W124" s="10"/>
+      <x:c r="X124" s="10"/>
+      <x:c r="Y124" s="10"/>
+      <x:c r="Z124" s="10"/>
     </x:row>
     <x:row r="125" spans="1:26">
-      <x:c r="A125" s="12"/>
-      <x:c r="B125" s="12"/>
-      <x:c r="C125" s="7"/>
-      <x:c r="D125" s="12"/>
-      <x:c r="E125" s="12"/>
-      <x:c r="F125" s="11"/>
-      <x:c r="G125" s="12"/>
-      <x:c r="H125" s="12"/>
-      <x:c r="I125" s="12"/>
-      <x:c r="J125" s="12"/>
-      <x:c r="K125" s="11"/>
-      <x:c r="L125" s="12"/>
-      <x:c r="M125" s="12"/>
-      <x:c r="N125" s="11"/>
-      <x:c r="O125" s="12"/>
-      <x:c r="P125" s="12"/>
-      <x:c r="Q125" s="12"/>
-      <x:c r="R125" s="12"/>
-      <x:c r="S125" s="12"/>
-      <x:c r="T125" s="12"/>
-      <x:c r="U125" s="11"/>
-      <x:c r="V125" s="12"/>
-      <x:c r="W125" s="12"/>
-      <x:c r="X125" s="12"/>
-      <x:c r="Y125" s="12"/>
-      <x:c r="Z125" s="12"/>
+      <x:c r="A125" s="10"/>
+      <x:c r="B125" s="10"/>
+      <x:c r="C125" s="5"/>
+      <x:c r="D125" s="10"/>
+      <x:c r="E125" s="10"/>
+      <x:c r="F125" s="9"/>
+      <x:c r="G125" s="10"/>
+      <x:c r="H125" s="10"/>
+      <x:c r="I125" s="10"/>
+      <x:c r="J125" s="10"/>
+      <x:c r="K125" s="9"/>
+      <x:c r="L125" s="10"/>
+      <x:c r="M125" s="10"/>
+      <x:c r="N125" s="9"/>
+      <x:c r="O125" s="10"/>
+      <x:c r="P125" s="10"/>
+      <x:c r="Q125" s="10"/>
+      <x:c r="R125" s="10"/>
+      <x:c r="S125" s="10"/>
+      <x:c r="T125" s="10"/>
+      <x:c r="U125" s="9"/>
+      <x:c r="V125" s="10"/>
+      <x:c r="W125" s="10"/>
+      <x:c r="X125" s="10"/>
+      <x:c r="Y125" s="10"/>
+      <x:c r="Z125" s="10"/>
     </x:row>
     <x:row r="126" spans="1:26">
-      <x:c r="A126" s="12"/>
-      <x:c r="B126" s="12"/>
-      <x:c r="C126" s="7"/>
-      <x:c r="D126" s="12"/>
-      <x:c r="E126" s="12"/>
-      <x:c r="F126" s="11"/>
-      <x:c r="G126" s="12"/>
-      <x:c r="H126" s="12"/>
-      <x:c r="I126" s="12"/>
-      <x:c r="J126" s="12"/>
-      <x:c r="K126" s="11"/>
-      <x:c r="L126" s="12"/>
-      <x:c r="M126" s="12"/>
-      <x:c r="N126" s="11"/>
-      <x:c r="O126" s="12"/>
-      <x:c r="P126" s="12"/>
-      <x:c r="Q126" s="12"/>
-      <x:c r="R126" s="12"/>
-      <x:c r="S126" s="12"/>
-      <x:c r="T126" s="12"/>
-      <x:c r="U126" s="11"/>
-      <x:c r="V126" s="12"/>
-      <x:c r="W126" s="12"/>
-      <x:c r="X126" s="12"/>
-      <x:c r="Y126" s="12"/>
-      <x:c r="Z126" s="12"/>
+      <x:c r="A126" s="10"/>
+      <x:c r="B126" s="10"/>
+      <x:c r="C126" s="5"/>
+      <x:c r="D126" s="10"/>
+      <x:c r="E126" s="10"/>
+      <x:c r="F126" s="9"/>
+      <x:c r="G126" s="10"/>
+      <x:c r="H126" s="10"/>
+      <x:c r="I126" s="10"/>
+      <x:c r="J126" s="10"/>
+      <x:c r="K126" s="9"/>
+      <x:c r="L126" s="10"/>
+      <x:c r="M126" s="10"/>
+      <x:c r="N126" s="9"/>
+      <x:c r="O126" s="10"/>
+      <x:c r="P126" s="10"/>
+      <x:c r="Q126" s="10"/>
+      <x:c r="R126" s="10"/>
+      <x:c r="S126" s="10"/>
+      <x:c r="T126" s="10"/>
+      <x:c r="U126" s="9"/>
+      <x:c r="V126" s="10"/>
+      <x:c r="W126" s="10"/>
+      <x:c r="X126" s="10"/>
+      <x:c r="Y126" s="10"/>
+      <x:c r="Z126" s="10"/>
     </x:row>
     <x:row r="127" spans="1:26">
-      <x:c r="A127" s="12"/>
-      <x:c r="B127" s="12"/>
-      <x:c r="C127" s="7"/>
-      <x:c r="D127" s="12"/>
-      <x:c r="E127" s="12"/>
-      <x:c r="F127" s="11"/>
-      <x:c r="G127" s="12"/>
-      <x:c r="H127" s="12"/>
-      <x:c r="I127" s="12"/>
-      <x:c r="J127" s="12"/>
-      <x:c r="K127" s="11"/>
-      <x:c r="L127" s="12"/>
-      <x:c r="M127" s="12"/>
-      <x:c r="N127" s="11"/>
-      <x:c r="O127" s="12"/>
-      <x:c r="P127" s="12"/>
-      <x:c r="Q127" s="12"/>
-      <x:c r="R127" s="12"/>
-      <x:c r="S127" s="12"/>
-      <x:c r="T127" s="12"/>
-      <x:c r="U127" s="11"/>
-      <x:c r="V127" s="12"/>
-      <x:c r="W127" s="12"/>
-      <x:c r="X127" s="12"/>
-      <x:c r="Y127" s="12"/>
-      <x:c r="Z127" s="12"/>
+      <x:c r="A127" s="10"/>
+      <x:c r="B127" s="10"/>
+      <x:c r="C127" s="5"/>
+      <x:c r="D127" s="10"/>
+      <x:c r="E127" s="10"/>
+      <x:c r="F127" s="9"/>
+      <x:c r="G127" s="10"/>
+      <x:c r="H127" s="10"/>
+      <x:c r="I127" s="10"/>
+      <x:c r="J127" s="10"/>
+      <x:c r="K127" s="9"/>
+      <x:c r="L127" s="10"/>
+      <x:c r="M127" s="10"/>
+      <x:c r="N127" s="9"/>
+      <x:c r="O127" s="10"/>
+      <x:c r="P127" s="10"/>
+      <x:c r="Q127" s="10"/>
+      <x:c r="R127" s="10"/>
+      <x:c r="S127" s="10"/>
+      <x:c r="T127" s="10"/>
+      <x:c r="U127" s="9"/>
+      <x:c r="V127" s="10"/>
+      <x:c r="W127" s="10"/>
+      <x:c r="X127" s="10"/>
+      <x:c r="Y127" s="10"/>
+      <x:c r="Z127" s="10"/>
     </x:row>
     <x:row r="128" spans="1:26">
-      <x:c r="A128" s="12"/>
-      <x:c r="B128" s="12"/>
-      <x:c r="C128" s="7"/>
-      <x:c r="D128" s="12"/>
-      <x:c r="E128" s="12"/>
-      <x:c r="F128" s="11"/>
-      <x:c r="G128" s="12"/>
-      <x:c r="H128" s="12"/>
-      <x:c r="I128" s="12"/>
-      <x:c r="J128" s="12"/>
-      <x:c r="K128" s="11"/>
-      <x:c r="L128" s="12"/>
-      <x:c r="M128" s="12"/>
-      <x:c r="N128" s="11"/>
-      <x:c r="O128" s="12"/>
-      <x:c r="P128" s="12"/>
-      <x:c r="Q128" s="12"/>
-      <x:c r="R128" s="12"/>
-      <x:c r="S128" s="12"/>
-      <x:c r="T128" s="12"/>
-      <x:c r="U128" s="11"/>
-      <x:c r="V128" s="12"/>
-      <x:c r="W128" s="12"/>
-      <x:c r="X128" s="12"/>
-      <x:c r="Y128" s="12"/>
-      <x:c r="Z128" s="12"/>
+      <x:c r="A128" s="10"/>
+      <x:c r="B128" s="10"/>
+      <x:c r="C128" s="5"/>
+      <x:c r="D128" s="10"/>
+      <x:c r="E128" s="10"/>
+      <x:c r="F128" s="9"/>
+      <x:c r="G128" s="10"/>
+      <x:c r="H128" s="10"/>
+      <x:c r="I128" s="10"/>
+      <x:c r="J128" s="10"/>
+      <x:c r="K128" s="9"/>
+      <x:c r="L128" s="10"/>
+      <x:c r="M128" s="10"/>
+      <x:c r="N128" s="9"/>
+      <x:c r="O128" s="10"/>
+      <x:c r="P128" s="10"/>
+      <x:c r="Q128" s="10"/>
+      <x:c r="R128" s="10"/>
+      <x:c r="S128" s="10"/>
+      <x:c r="T128" s="10"/>
+      <x:c r="U128" s="9"/>
+      <x:c r="V128" s="10"/>
+      <x:c r="W128" s="10"/>
+      <x:c r="X128" s="10"/>
+      <x:c r="Y128" s="10"/>
+      <x:c r="Z128" s="10"/>
     </x:row>
     <x:row r="129" spans="1:26">
-      <x:c r="A129" s="12"/>
-      <x:c r="B129" s="12"/>
-      <x:c r="C129" s="7"/>
-      <x:c r="D129" s="12"/>
-      <x:c r="E129" s="12"/>
-      <x:c r="F129" s="11"/>
-      <x:c r="G129" s="12"/>
-      <x:c r="H129" s="12"/>
-      <x:c r="I129" s="12"/>
-      <x:c r="J129" s="12"/>
-      <x:c r="K129" s="12"/>
-      <x:c r="L129" s="12"/>
-      <x:c r="M129" s="12"/>
-      <x:c r="N129" s="12"/>
-      <x:c r="O129" s="12"/>
-      <x:c r="P129" s="12"/>
-      <x:c r="Q129" s="12"/>
-      <x:c r="R129" s="12"/>
-      <x:c r="S129" s="12"/>
-      <x:c r="T129" s="12"/>
-      <x:c r="U129" s="12"/>
-      <x:c r="V129" s="12"/>
-      <x:c r="W129" s="12"/>
-      <x:c r="X129" s="12"/>
-      <x:c r="Y129" s="12"/>
-      <x:c r="Z129" s="12"/>
+      <x:c r="A129" s="10"/>
+      <x:c r="B129" s="10"/>
+      <x:c r="C129" s="5"/>
+      <x:c r="D129" s="10"/>
+      <x:c r="E129" s="10"/>
+      <x:c r="F129" s="9"/>
+      <x:c r="G129" s="10"/>
+      <x:c r="H129" s="10"/>
+      <x:c r="I129" s="10"/>
+      <x:c r="J129" s="10"/>
+      <x:c r="K129" s="10"/>
+      <x:c r="L129" s="10"/>
+      <x:c r="M129" s="10"/>
+      <x:c r="N129" s="10"/>
+      <x:c r="O129" s="10"/>
+      <x:c r="P129" s="10"/>
+      <x:c r="Q129" s="10"/>
+      <x:c r="R129" s="10"/>
+      <x:c r="S129" s="10"/>
+      <x:c r="T129" s="10"/>
+      <x:c r="U129" s="10"/>
+      <x:c r="V129" s="10"/>
+      <x:c r="W129" s="10"/>
+      <x:c r="X129" s="10"/>
+      <x:c r="Y129" s="10"/>
+      <x:c r="Z129" s="10"/>
     </x:row>
     <x:row r="130" spans="1:26">
-      <x:c r="A130" s="12"/>
-      <x:c r="B130" s="12"/>
-      <x:c r="C130" s="7"/>
-      <x:c r="D130" s="12"/>
-      <x:c r="E130" s="12"/>
-      <x:c r="F130" s="11"/>
-      <x:c r="G130" s="12"/>
-      <x:c r="H130" s="12"/>
-      <x:c r="I130" s="12"/>
-      <x:c r="J130" s="12"/>
-      <x:c r="K130" s="12"/>
-      <x:c r="L130" s="12"/>
-      <x:c r="M130" s="12"/>
-      <x:c r="N130" s="12"/>
-      <x:c r="O130" s="12"/>
-      <x:c r="P130" s="12"/>
-      <x:c r="Q130" s="12"/>
-      <x:c r="R130" s="12"/>
-      <x:c r="S130" s="12"/>
-      <x:c r="T130" s="12"/>
-      <x:c r="U130" s="12"/>
-      <x:c r="V130" s="12"/>
-      <x:c r="W130" s="12"/>
-      <x:c r="X130" s="12"/>
-      <x:c r="Y130" s="12"/>
-      <x:c r="Z130" s="12"/>
+      <x:c r="A130" s="10"/>
+      <x:c r="B130" s="10"/>
+      <x:c r="C130" s="5"/>
+      <x:c r="D130" s="10"/>
+      <x:c r="E130" s="10"/>
+      <x:c r="F130" s="9"/>
+      <x:c r="G130" s="10"/>
+      <x:c r="H130" s="10"/>
+      <x:c r="I130" s="10"/>
+      <x:c r="J130" s="10"/>
+      <x:c r="K130" s="10"/>
+      <x:c r="L130" s="10"/>
+      <x:c r="M130" s="10"/>
+      <x:c r="N130" s="10"/>
+      <x:c r="O130" s="10"/>
+      <x:c r="P130" s="10"/>
+      <x:c r="Q130" s="10"/>
+      <x:c r="R130" s="10"/>
+      <x:c r="S130" s="10"/>
+      <x:c r="T130" s="10"/>
+      <x:c r="U130" s="10"/>
+      <x:c r="V130" s="10"/>
+      <x:c r="W130" s="10"/>
+      <x:c r="X130" s="10"/>
+      <x:c r="Y130" s="10"/>
+      <x:c r="Z130" s="10"/>
     </x:row>
     <x:row r="131" spans="1:26">
-      <x:c r="A131" s="12"/>
-      <x:c r="B131" s="12"/>
-      <x:c r="C131" s="7"/>
-      <x:c r="D131" s="12"/>
-      <x:c r="E131" s="12"/>
-      <x:c r="F131" s="11"/>
-      <x:c r="G131" s="12"/>
-      <x:c r="H131" s="12"/>
-      <x:c r="I131" s="12"/>
-      <x:c r="J131" s="12"/>
-      <x:c r="K131" s="12"/>
-      <x:c r="L131" s="12"/>
-      <x:c r="M131" s="12"/>
-      <x:c r="N131" s="12"/>
-      <x:c r="O131" s="12"/>
-      <x:c r="P131" s="12"/>
-      <x:c r="Q131" s="12"/>
-      <x:c r="R131" s="12"/>
-      <x:c r="S131" s="12"/>
-      <x:c r="T131" s="12"/>
-      <x:c r="U131" s="12"/>
-      <x:c r="V131" s="12"/>
-      <x:c r="W131" s="12"/>
-      <x:c r="X131" s="12"/>
-      <x:c r="Y131" s="12"/>
-      <x:c r="Z131" s="12"/>
+      <x:c r="A131" s="10"/>
+      <x:c r="B131" s="10"/>
+      <x:c r="C131" s="5"/>
+      <x:c r="D131" s="10"/>
+      <x:c r="E131" s="10"/>
+      <x:c r="F131" s="9"/>
+      <x:c r="G131" s="10"/>
+      <x:c r="H131" s="10"/>
+      <x:c r="I131" s="10"/>
+      <x:c r="J131" s="10"/>
+      <x:c r="K131" s="10"/>
+      <x:c r="L131" s="10"/>
+      <x:c r="M131" s="10"/>
+      <x:c r="N131" s="10"/>
+      <x:c r="O131" s="10"/>
+      <x:c r="P131" s="10"/>
+      <x:c r="Q131" s="10"/>
+      <x:c r="R131" s="10"/>
+      <x:c r="S131" s="10"/>
+      <x:c r="T131" s="10"/>
+      <x:c r="U131" s="10"/>
+      <x:c r="V131" s="10"/>
+      <x:c r="W131" s="10"/>
+      <x:c r="X131" s="10"/>
+      <x:c r="Y131" s="10"/>
+      <x:c r="Z131" s="10"/>
     </x:row>
     <x:row r="132" spans="1:26">
-      <x:c r="A132" s="12"/>
-      <x:c r="B132" s="12"/>
-      <x:c r="C132" s="7"/>
-      <x:c r="D132" s="12"/>
-      <x:c r="E132" s="12"/>
-      <x:c r="F132" s="12"/>
-      <x:c r="G132" s="12"/>
-      <x:c r="H132" s="12"/>
-      <x:c r="I132" s="12"/>
-      <x:c r="J132" s="12"/>
-      <x:c r="K132" s="12"/>
-      <x:c r="L132" s="12"/>
-      <x:c r="M132" s="12"/>
-      <x:c r="N132" s="12"/>
-      <x:c r="O132" s="12"/>
-      <x:c r="P132" s="12"/>
-      <x:c r="Q132" s="12"/>
-      <x:c r="R132" s="12"/>
-      <x:c r="S132" s="12"/>
-      <x:c r="T132" s="12"/>
-      <x:c r="U132" s="12"/>
-      <x:c r="V132" s="12"/>
-      <x:c r="W132" s="12"/>
-      <x:c r="X132" s="12"/>
-      <x:c r="Y132" s="12"/>
-      <x:c r="Z132" s="12"/>
+      <x:c r="A132" s="10"/>
+      <x:c r="B132" s="10"/>
+      <x:c r="C132" s="5"/>
+      <x:c r="D132" s="10"/>
+      <x:c r="E132" s="10"/>
+      <x:c r="F132" s="10"/>
+      <x:c r="G132" s="10"/>
+      <x:c r="H132" s="10"/>
+      <x:c r="I132" s="10"/>
+      <x:c r="J132" s="10"/>
+      <x:c r="K132" s="10"/>
+      <x:c r="L132" s="10"/>
+      <x:c r="M132" s="10"/>
+      <x:c r="N132" s="10"/>
+      <x:c r="O132" s="10"/>
+      <x:c r="P132" s="10"/>
+      <x:c r="Q132" s="10"/>
+      <x:c r="R132" s="10"/>
+      <x:c r="S132" s="10"/>
+      <x:c r="T132" s="10"/>
+      <x:c r="U132" s="10"/>
+      <x:c r="V132" s="10"/>
+      <x:c r="W132" s="10"/>
+      <x:c r="X132" s="10"/>
+      <x:c r="Y132" s="10"/>
+      <x:c r="Z132" s="10"/>
     </x:row>
     <x:row r="133" spans="1:26">
-      <x:c r="A133" s="12"/>
-      <x:c r="B133" s="12"/>
-      <x:c r="C133" s="7"/>
-      <x:c r="D133" s="12"/>
-      <x:c r="E133" s="12"/>
-      <x:c r="F133" s="12"/>
-      <x:c r="G133" s="12"/>
-      <x:c r="H133" s="12"/>
-      <x:c r="I133" s="12"/>
-      <x:c r="J133" s="12"/>
-      <x:c r="K133" s="12"/>
-      <x:c r="L133" s="12"/>
-      <x:c r="M133" s="12"/>
-      <x:c r="N133" s="12"/>
-      <x:c r="O133" s="12"/>
-      <x:c r="P133" s="12"/>
-      <x:c r="Q133" s="12"/>
-      <x:c r="R133" s="12"/>
-      <x:c r="S133" s="12"/>
-      <x:c r="T133" s="12"/>
-      <x:c r="U133" s="12"/>
-      <x:c r="V133" s="12"/>
-      <x:c r="W133" s="12"/>
-      <x:c r="X133" s="12"/>
-      <x:c r="Y133" s="12"/>
-      <x:c r="Z133" s="12"/>
+      <x:c r="A133" s="10"/>
+      <x:c r="B133" s="10"/>
+      <x:c r="C133" s="5"/>
+      <x:c r="D133" s="10"/>
+      <x:c r="E133" s="10"/>
+      <x:c r="F133" s="10"/>
+      <x:c r="G133" s="10"/>
+      <x:c r="H133" s="10"/>
+      <x:c r="I133" s="10"/>
+      <x:c r="J133" s="10"/>
+      <x:c r="K133" s="10"/>
+      <x:c r="L133" s="10"/>
+      <x:c r="M133" s="10"/>
+      <x:c r="N133" s="10"/>
+      <x:c r="O133" s="10"/>
+      <x:c r="P133" s="10"/>
+      <x:c r="Q133" s="10"/>
+      <x:c r="R133" s="10"/>
+      <x:c r="S133" s="10"/>
+      <x:c r="T133" s="10"/>
+      <x:c r="U133" s="10"/>
+      <x:c r="V133" s="10"/>
+      <x:c r="W133" s="10"/>
+      <x:c r="X133" s="10"/>
+      <x:c r="Y133" s="10"/>
+      <x:c r="Z133" s="10"/>
     </x:row>
     <x:row r="134" spans="1:26">
-      <x:c r="A134" s="12"/>
-      <x:c r="B134" s="12"/>
-      <x:c r="C134" s="7"/>
-      <x:c r="D134" s="12"/>
-      <x:c r="E134" s="12"/>
-      <x:c r="F134" s="12"/>
-      <x:c r="G134" s="12"/>
-      <x:c r="H134" s="12"/>
-      <x:c r="I134" s="12"/>
-      <x:c r="J134" s="12"/>
-      <x:c r="K134" s="12"/>
-      <x:c r="L134" s="12"/>
-      <x:c r="M134" s="12"/>
-      <x:c r="N134" s="12"/>
-      <x:c r="O134" s="12"/>
-      <x:c r="P134" s="12"/>
-      <x:c r="Q134" s="12"/>
-      <x:c r="R134" s="12"/>
-      <x:c r="S134" s="12"/>
-      <x:c r="T134" s="12"/>
-      <x:c r="U134" s="12"/>
-      <x:c r="V134" s="12"/>
-      <x:c r="W134" s="12"/>
-      <x:c r="X134" s="12"/>
-      <x:c r="Y134" s="12"/>
-      <x:c r="Z134" s="12"/>
+      <x:c r="A134" s="10"/>
+      <x:c r="B134" s="10"/>
+      <x:c r="C134" s="5"/>
+      <x:c r="D134" s="10"/>
+      <x:c r="E134" s="10"/>
+      <x:c r="F134" s="10"/>
+      <x:c r="G134" s="10"/>
+      <x:c r="H134" s="10"/>
+      <x:c r="I134" s="10"/>
+      <x:c r="J134" s="10"/>
+      <x:c r="K134" s="10"/>
+      <x:c r="L134" s="10"/>
+      <x:c r="M134" s="10"/>
+      <x:c r="N134" s="10"/>
+      <x:c r="O134" s="10"/>
+      <x:c r="P134" s="10"/>
+      <x:c r="Q134" s="10"/>
+      <x:c r="R134" s="10"/>
+      <x:c r="S134" s="10"/>
+      <x:c r="T134" s="10"/>
+      <x:c r="U134" s="10"/>
+      <x:c r="V134" s="10"/>
+      <x:c r="W134" s="10"/>
+      <x:c r="X134" s="10"/>
+      <x:c r="Y134" s="10"/>
+      <x:c r="Z134" s="10"/>
     </x:row>
     <x:row r="135" spans="1:26">
-      <x:c r="A135" s="12"/>
-      <x:c r="B135" s="12"/>
-      <x:c r="C135" s="7"/>
-      <x:c r="D135" s="12"/>
-      <x:c r="E135" s="12"/>
-      <x:c r="F135" s="12"/>
-      <x:c r="G135" s="12"/>
-      <x:c r="H135" s="12"/>
-      <x:c r="I135" s="12"/>
-      <x:c r="J135" s="12"/>
-      <x:c r="K135" s="12"/>
-      <x:c r="L135" s="12"/>
-      <x:c r="M135" s="12"/>
-      <x:c r="N135" s="12"/>
-      <x:c r="O135" s="12"/>
-      <x:c r="P135" s="12"/>
-      <x:c r="Q135" s="12"/>
-      <x:c r="R135" s="12"/>
-      <x:c r="S135" s="12"/>
-      <x:c r="T135" s="12"/>
-      <x:c r="U135" s="12"/>
-      <x:c r="V135" s="12"/>
-      <x:c r="W135" s="12"/>
-      <x:c r="X135" s="12"/>
-      <x:c r="Y135" s="12"/>
-      <x:c r="Z135" s="12"/>
+      <x:c r="A135" s="10"/>
+      <x:c r="B135" s="10"/>
+      <x:c r="C135" s="5"/>
+      <x:c r="D135" s="10"/>
+      <x:c r="E135" s="10"/>
+      <x:c r="F135" s="10"/>
+      <x:c r="G135" s="10"/>
+      <x:c r="H135" s="10"/>
+      <x:c r="I135" s="10"/>
+      <x:c r="J135" s="10"/>
+      <x:c r="K135" s="10"/>
+      <x:c r="L135" s="10"/>
+      <x:c r="M135" s="10"/>
+      <x:c r="N135" s="10"/>
+      <x:c r="O135" s="10"/>
+      <x:c r="P135" s="10"/>
+      <x:c r="Q135" s="10"/>
+      <x:c r="R135" s="10"/>
+      <x:c r="S135" s="10"/>
+      <x:c r="T135" s="10"/>
+      <x:c r="U135" s="10"/>
+      <x:c r="V135" s="10"/>
+      <x:c r="W135" s="10"/>
+      <x:c r="X135" s="10"/>
+      <x:c r="Y135" s="10"/>
+      <x:c r="Z135" s="10"/>
     </x:row>
     <x:row r="136" spans="1:26">
-      <x:c r="A136" s="12"/>
-      <x:c r="B136" s="12"/>
-      <x:c r="C136" s="7"/>
-      <x:c r="D136" s="12"/>
-      <x:c r="E136" s="12"/>
-      <x:c r="F136" s="12"/>
-      <x:c r="G136" s="12"/>
-      <x:c r="H136" s="12"/>
-      <x:c r="I136" s="12"/>
-      <x:c r="J136" s="12"/>
-      <x:c r="K136" s="12"/>
-      <x:c r="L136" s="12"/>
-      <x:c r="M136" s="12"/>
-      <x:c r="N136" s="12"/>
-      <x:c r="O136" s="12"/>
-      <x:c r="P136" s="12"/>
-      <x:c r="Q136" s="12"/>
-      <x:c r="R136" s="12"/>
-      <x:c r="S136" s="12"/>
-      <x:c r="T136" s="12"/>
-      <x:c r="U136" s="12"/>
-      <x:c r="V136" s="12"/>
-      <x:c r="W136" s="12"/>
-      <x:c r="X136" s="12"/>
-      <x:c r="Y136" s="12"/>
-      <x:c r="Z136" s="12"/>
+      <x:c r="A136" s="10"/>
+      <x:c r="B136" s="10"/>
+      <x:c r="C136" s="5"/>
+      <x:c r="D136" s="10"/>
+      <x:c r="E136" s="10"/>
+      <x:c r="F136" s="10"/>
+      <x:c r="G136" s="10"/>
+      <x:c r="H136" s="10"/>
+      <x:c r="I136" s="10"/>
+      <x:c r="J136" s="10"/>
+      <x:c r="K136" s="10"/>
+      <x:c r="L136" s="10"/>
+      <x:c r="M136" s="10"/>
+      <x:c r="N136" s="10"/>
+      <x:c r="O136" s="10"/>
+      <x:c r="P136" s="10"/>
+      <x:c r="Q136" s="10"/>
+      <x:c r="R136" s="10"/>
+      <x:c r="S136" s="10"/>
+      <x:c r="T136" s="10"/>
+      <x:c r="U136" s="10"/>
+      <x:c r="V136" s="10"/>
+      <x:c r="W136" s="10"/>
+      <x:c r="X136" s="10"/>
+      <x:c r="Y136" s="10"/>
+      <x:c r="Z136" s="10"/>
     </x:row>
     <x:row r="137" spans="1:26">
-      <x:c r="A137" s="12"/>
-      <x:c r="B137" s="12"/>
-      <x:c r="C137" s="7"/>
-      <x:c r="D137" s="12"/>
-      <x:c r="E137" s="12"/>
-      <x:c r="F137" s="12"/>
-      <x:c r="G137" s="12"/>
-      <x:c r="H137" s="12"/>
-      <x:c r="I137" s="12"/>
-      <x:c r="J137" s="12"/>
-      <x:c r="K137" s="12"/>
-      <x:c r="L137" s="12"/>
-      <x:c r="M137" s="12"/>
-      <x:c r="N137" s="12"/>
-      <x:c r="O137" s="12"/>
-      <x:c r="P137" s="12"/>
-      <x:c r="Q137" s="12"/>
-      <x:c r="R137" s="12"/>
-      <x:c r="S137" s="12"/>
-      <x:c r="T137" s="12"/>
-      <x:c r="U137" s="12"/>
-      <x:c r="V137" s="12"/>
-      <x:c r="W137" s="12"/>
-      <x:c r="X137" s="12"/>
-      <x:c r="Y137" s="12"/>
-      <x:c r="Z137" s="12"/>
+      <x:c r="A137" s="10"/>
+      <x:c r="B137" s="10"/>
+      <x:c r="C137" s="5"/>
+      <x:c r="D137" s="10"/>
+      <x:c r="E137" s="10"/>
+      <x:c r="F137" s="10"/>
+      <x:c r="G137" s="10"/>
+      <x:c r="H137" s="10"/>
+      <x:c r="I137" s="10"/>
+      <x:c r="J137" s="10"/>
+      <x:c r="K137" s="10"/>
+      <x:c r="L137" s="10"/>
+      <x:c r="M137" s="10"/>
+      <x:c r="N137" s="10"/>
+      <x:c r="O137" s="10"/>
+      <x:c r="P137" s="10"/>
+      <x:c r="Q137" s="10"/>
+      <x:c r="R137" s="10"/>
+      <x:c r="S137" s="10"/>
+      <x:c r="T137" s="10"/>
+      <x:c r="U137" s="10"/>
+      <x:c r="V137" s="10"/>
+      <x:c r="W137" s="10"/>
+      <x:c r="X137" s="10"/>
+      <x:c r="Y137" s="10"/>
+      <x:c r="Z137" s="10"/>
     </x:row>
     <x:row r="138" spans="1:26">
-      <x:c r="A138" s="12"/>
-      <x:c r="B138" s="12"/>
-      <x:c r="C138" s="7"/>
-      <x:c r="D138" s="12"/>
-      <x:c r="E138" s="12"/>
-      <x:c r="F138" s="12"/>
-      <x:c r="G138" s="12"/>
-      <x:c r="H138" s="12"/>
-      <x:c r="I138" s="12"/>
-      <x:c r="J138" s="12"/>
-      <x:c r="K138" s="12"/>
-      <x:c r="L138" s="12"/>
-      <x:c r="M138" s="12"/>
-      <x:c r="N138" s="12"/>
-      <x:c r="O138" s="12"/>
-      <x:c r="P138" s="12"/>
-      <x:c r="Q138" s="12"/>
-      <x:c r="R138" s="12"/>
-      <x:c r="S138" s="12"/>
-      <x:c r="T138" s="12"/>
-      <x:c r="U138" s="12"/>
-      <x:c r="V138" s="12"/>
-      <x:c r="W138" s="12"/>
-      <x:c r="X138" s="12"/>
-      <x:c r="Y138" s="12"/>
-      <x:c r="Z138" s="12"/>
+      <x:c r="A138" s="10"/>
+      <x:c r="B138" s="10"/>
+      <x:c r="C138" s="5"/>
+      <x:c r="D138" s="10"/>
+      <x:c r="E138" s="10"/>
+      <x:c r="F138" s="10"/>
+      <x:c r="G138" s="10"/>
+      <x:c r="H138" s="10"/>
+      <x:c r="I138" s="10"/>
+      <x:c r="J138" s="10"/>
+      <x:c r="K138" s="10"/>
+      <x:c r="L138" s="10"/>
+      <x:c r="M138" s="10"/>
+      <x:c r="N138" s="10"/>
+      <x:c r="O138" s="10"/>
+      <x:c r="P138" s="10"/>
+      <x:c r="Q138" s="10"/>
+      <x:c r="R138" s="10"/>
+      <x:c r="S138" s="10"/>
+      <x:c r="T138" s="10"/>
+      <x:c r="U138" s="10"/>
+      <x:c r="V138" s="10"/>
+      <x:c r="W138" s="10"/>
+      <x:c r="X138" s="10"/>
+      <x:c r="Y138" s="10"/>
+      <x:c r="Z138" s="10"/>
     </x:row>
     <x:row r="139" spans="1:26">
-      <x:c r="A139" s="12"/>
-      <x:c r="B139" s="12"/>
-      <x:c r="C139" s="7"/>
-      <x:c r="D139" s="12"/>
-      <x:c r="E139" s="12"/>
-      <x:c r="F139" s="12"/>
-      <x:c r="G139" s="12"/>
-      <x:c r="H139" s="12"/>
-      <x:c r="I139" s="12"/>
-      <x:c r="J139" s="12"/>
-      <x:c r="K139" s="12"/>
-      <x:c r="L139" s="12"/>
-      <x:c r="M139" s="12"/>
-      <x:c r="N139" s="12"/>
-      <x:c r="O139" s="12"/>
-      <x:c r="P139" s="12"/>
-      <x:c r="Q139" s="12"/>
-      <x:c r="R139" s="12"/>
-      <x:c r="S139" s="12"/>
-      <x:c r="T139" s="12"/>
-      <x:c r="U139" s="12"/>
-      <x:c r="V139" s="12"/>
-      <x:c r="W139" s="12"/>
-      <x:c r="X139" s="12"/>
-      <x:c r="Y139" s="12"/>
-      <x:c r="Z139" s="12"/>
+      <x:c r="A139" s="10"/>
+      <x:c r="B139" s="10"/>
+      <x:c r="C139" s="5"/>
+      <x:c r="D139" s="10"/>
+      <x:c r="E139" s="10"/>
+      <x:c r="F139" s="10"/>
+      <x:c r="G139" s="10"/>
+      <x:c r="H139" s="10"/>
+      <x:c r="I139" s="10"/>
+      <x:c r="J139" s="10"/>
+      <x:c r="K139" s="10"/>
+      <x:c r="L139" s="10"/>
+      <x:c r="M139" s="10"/>
+      <x:c r="N139" s="10"/>
+      <x:c r="O139" s="10"/>
+      <x:c r="P139" s="10"/>
+      <x:c r="Q139" s="10"/>
+      <x:c r="R139" s="10"/>
+      <x:c r="S139" s="10"/>
+      <x:c r="T139" s="10"/>
+      <x:c r="U139" s="10"/>
+      <x:c r="V139" s="10"/>
+      <x:c r="W139" s="10"/>
+      <x:c r="X139" s="10"/>
+      <x:c r="Y139" s="10"/>
+      <x:c r="Z139" s="10"/>
     </x:row>
     <x:row r="140" spans="1:26">
-      <x:c r="A140" s="12"/>
-      <x:c r="B140" s="12"/>
-      <x:c r="C140" s="7"/>
-      <x:c r="D140" s="12"/>
-      <x:c r="E140" s="12"/>
-      <x:c r="F140" s="12"/>
-      <x:c r="G140" s="12"/>
-      <x:c r="H140" s="12"/>
-      <x:c r="I140" s="12"/>
-      <x:c r="J140" s="12"/>
-      <x:c r="K140" s="12"/>
-      <x:c r="L140" s="12"/>
-      <x:c r="M140" s="12"/>
-      <x:c r="N140" s="12"/>
-      <x:c r="O140" s="12"/>
-      <x:c r="P140" s="12"/>
-      <x:c r="Q140" s="12"/>
-      <x:c r="R140" s="12"/>
-      <x:c r="S140" s="12"/>
-      <x:c r="T140" s="12"/>
-      <x:c r="U140" s="12"/>
-      <x:c r="V140" s="12"/>
-      <x:c r="W140" s="12"/>
-      <x:c r="X140" s="12"/>
-      <x:c r="Y140" s="12"/>
-      <x:c r="Z140" s="12"/>
+      <x:c r="A140" s="10"/>
+      <x:c r="B140" s="10"/>
+      <x:c r="C140" s="5"/>
+      <x:c r="D140" s="10"/>
+      <x:c r="E140" s="10"/>
+      <x:c r="F140" s="10"/>
+      <x:c r="G140" s="10"/>
+      <x:c r="H140" s="10"/>
+      <x:c r="I140" s="10"/>
+      <x:c r="J140" s="10"/>
+      <x:c r="K140" s="10"/>
+      <x:c r="L140" s="10"/>
+      <x:c r="M140" s="10"/>
+      <x:c r="N140" s="10"/>
+      <x:c r="O140" s="10"/>
+      <x:c r="P140" s="10"/>
+      <x:c r="Q140" s="10"/>
+      <x:c r="R140" s="10"/>
+      <x:c r="S140" s="10"/>
+      <x:c r="T140" s="10"/>
+      <x:c r="U140" s="10"/>
+      <x:c r="V140" s="10"/>
+      <x:c r="W140" s="10"/>
+      <x:c r="X140" s="10"/>
+      <x:c r="Y140" s="10"/>
+      <x:c r="Z140" s="10"/>
     </x:row>
     <x:row r="141" spans="1:26">
-      <x:c r="A141" s="12"/>
-      <x:c r="B141" s="12"/>
-      <x:c r="C141" s="7"/>
-      <x:c r="D141" s="12"/>
-      <x:c r="E141" s="12"/>
-      <x:c r="F141" s="12"/>
-      <x:c r="G141" s="12"/>
-      <x:c r="H141" s="12"/>
-      <x:c r="I141" s="12"/>
-      <x:c r="J141" s="12"/>
-      <x:c r="K141" s="12"/>
-      <x:c r="L141" s="12"/>
-      <x:c r="M141" s="12"/>
-      <x:c r="N141" s="12"/>
-      <x:c r="O141" s="12"/>
-      <x:c r="P141" s="12"/>
-      <x:c r="Q141" s="12"/>
-      <x:c r="R141" s="12"/>
-      <x:c r="S141" s="12"/>
-      <x:c r="T141" s="12"/>
-      <x:c r="U141" s="12"/>
-      <x:c r="V141" s="12"/>
-      <x:c r="W141" s="12"/>
-      <x:c r="X141" s="12"/>
-      <x:c r="Y141" s="12"/>
-      <x:c r="Z141" s="12"/>
+      <x:c r="A141" s="10"/>
+      <x:c r="B141" s="10"/>
+      <x:c r="C141" s="5"/>
+      <x:c r="D141" s="10"/>
+      <x:c r="E141" s="10"/>
+      <x:c r="F141" s="10"/>
+      <x:c r="G141" s="10"/>
+      <x:c r="H141" s="10"/>
+      <x:c r="I141" s="10"/>
+      <x:c r="J141" s="10"/>
+      <x:c r="K141" s="10"/>
+      <x:c r="L141" s="10"/>
+      <x:c r="M141" s="10"/>
+      <x:c r="N141" s="10"/>
+      <x:c r="O141" s="10"/>
+      <x:c r="P141" s="10"/>
+      <x:c r="Q141" s="10"/>
+      <x:c r="R141" s="10"/>
+      <x:c r="S141" s="10"/>
+      <x:c r="T141" s="10"/>
+      <x:c r="U141" s="10"/>
+      <x:c r="V141" s="10"/>
+      <x:c r="W141" s="10"/>
+      <x:c r="X141" s="10"/>
+      <x:c r="Y141" s="10"/>
+      <x:c r="Z141" s="10"/>
     </x:row>
     <x:row r="142" spans="1:26">
-      <x:c r="A142" s="12"/>
-      <x:c r="B142" s="12"/>
-      <x:c r="C142" s="7"/>
-      <x:c r="D142" s="12"/>
-      <x:c r="E142" s="12"/>
-      <x:c r="F142" s="12"/>
-      <x:c r="G142" s="12"/>
-      <x:c r="H142" s="12"/>
-      <x:c r="I142" s="12"/>
-      <x:c r="J142" s="12"/>
-      <x:c r="K142" s="12"/>
-      <x:c r="L142" s="12"/>
-      <x:c r="M142" s="12"/>
-      <x:c r="N142" s="12"/>
-      <x:c r="O142" s="12"/>
-      <x:c r="P142" s="12"/>
-      <x:c r="Q142" s="12"/>
-      <x:c r="R142" s="12"/>
-      <x:c r="S142" s="12"/>
-      <x:c r="T142" s="12"/>
-      <x:c r="U142" s="12"/>
-      <x:c r="V142" s="12"/>
-      <x:c r="W142" s="12"/>
-      <x:c r="X142" s="12"/>
-      <x:c r="Y142" s="12"/>
-      <x:c r="Z142" s="12"/>
+      <x:c r="A142" s="10"/>
+      <x:c r="B142" s="10"/>
+      <x:c r="C142" s="5"/>
+      <x:c r="D142" s="10"/>
+      <x:c r="E142" s="10"/>
+      <x:c r="F142" s="10"/>
+      <x:c r="G142" s="10"/>
+      <x:c r="H142" s="10"/>
+      <x:c r="I142" s="10"/>
+      <x:c r="J142" s="10"/>
+      <x:c r="K142" s="10"/>
+      <x:c r="L142" s="10"/>
+      <x:c r="M142" s="10"/>
+      <x:c r="N142" s="10"/>
+      <x:c r="O142" s="10"/>
+      <x:c r="P142" s="10"/>
+      <x:c r="Q142" s="10"/>
+      <x:c r="R142" s="10"/>
+      <x:c r="S142" s="10"/>
+      <x:c r="T142" s="10"/>
+      <x:c r="U142" s="10"/>
+      <x:c r="V142" s="10"/>
+      <x:c r="W142" s="10"/>
+      <x:c r="X142" s="10"/>
+      <x:c r="Y142" s="10"/>
+      <x:c r="Z142" s="10"/>
     </x:row>
     <x:row r="143" spans="1:26">
-      <x:c r="A143" s="12"/>
-      <x:c r="B143" s="12"/>
-      <x:c r="C143" s="7"/>
-      <x:c r="D143" s="12"/>
-      <x:c r="E143" s="12"/>
-      <x:c r="F143" s="12"/>
-      <x:c r="G143" s="12"/>
-      <x:c r="H143" s="12"/>
-      <x:c r="I143" s="12"/>
-      <x:c r="J143" s="12"/>
-      <x:c r="K143" s="12"/>
-      <x:c r="L143" s="12"/>
-      <x:c r="M143" s="12"/>
-      <x:c r="N143" s="12"/>
-      <x:c r="O143" s="12"/>
-      <x:c r="P143" s="12"/>
-      <x:c r="Q143" s="12"/>
-      <x:c r="R143" s="12"/>
-      <x:c r="S143" s="12"/>
-      <x:c r="T143" s="12"/>
-      <x:c r="U143" s="12"/>
-      <x:c r="V143" s="12"/>
-      <x:c r="W143" s="12"/>
-      <x:c r="X143" s="12"/>
-      <x:c r="Y143" s="12"/>
-      <x:c r="Z143" s="12"/>
+      <x:c r="A143" s="10"/>
+      <x:c r="B143" s="10"/>
+      <x:c r="C143" s="5"/>
+      <x:c r="D143" s="10"/>
+      <x:c r="E143" s="10"/>
+      <x:c r="F143" s="10"/>
+      <x:c r="G143" s="10"/>
+      <x:c r="H143" s="10"/>
+      <x:c r="I143" s="10"/>
+      <x:c r="J143" s="10"/>
+      <x:c r="K143" s="10"/>
+      <x:c r="L143" s="10"/>
+      <x:c r="M143" s="10"/>
+      <x:c r="N143" s="10"/>
+      <x:c r="O143" s="10"/>
+      <x:c r="P143" s="10"/>
+      <x:c r="Q143" s="10"/>
+      <x:c r="R143" s="10"/>
+      <x:c r="S143" s="10"/>
+      <x:c r="T143" s="10"/>
+      <x:c r="U143" s="10"/>
+      <x:c r="V143" s="10"/>
+      <x:c r="W143" s="10"/>
+      <x:c r="X143" s="10"/>
+      <x:c r="Y143" s="10"/>
+      <x:c r="Z143" s="10"/>
     </x:row>
     <x:row r="144" spans="1:26">
-      <x:c r="A144" s="12"/>
-      <x:c r="B144" s="12"/>
-      <x:c r="C144" s="7"/>
-      <x:c r="D144" s="12"/>
-      <x:c r="E144" s="12"/>
-      <x:c r="F144" s="12"/>
-      <x:c r="G144" s="12"/>
-      <x:c r="H144" s="12"/>
-      <x:c r="I144" s="12"/>
-      <x:c r="J144" s="12"/>
-      <x:c r="K144" s="12"/>
-      <x:c r="L144" s="12"/>
-      <x:c r="M144" s="12"/>
-      <x:c r="N144" s="12"/>
-      <x:c r="O144" s="12"/>
-      <x:c r="P144" s="12"/>
-      <x:c r="Q144" s="12"/>
-      <x:c r="R144" s="12"/>
-      <x:c r="S144" s="12"/>
-      <x:c r="T144" s="12"/>
-      <x:c r="U144" s="12"/>
-      <x:c r="V144" s="12"/>
-      <x:c r="W144" s="12"/>
-      <x:c r="X144" s="12"/>
-      <x:c r="Y144" s="12"/>
-      <x:c r="Z144" s="12"/>
+      <x:c r="A144" s="10"/>
+      <x:c r="B144" s="10"/>
+      <x:c r="C144" s="5"/>
+      <x:c r="D144" s="10"/>
+      <x:c r="E144" s="10"/>
+      <x:c r="F144" s="10"/>
+      <x:c r="G144" s="10"/>
+      <x:c r="H144" s="10"/>
+      <x:c r="I144" s="10"/>
+      <x:c r="J144" s="10"/>
+      <x:c r="K144" s="10"/>
+      <x:c r="L144" s="10"/>
+      <x:c r="M144" s="10"/>
+      <x:c r="N144" s="10"/>
+      <x:c r="O144" s="10"/>
+      <x:c r="P144" s="10"/>
+      <x:c r="Q144" s="10"/>
+      <x:c r="R144" s="10"/>
+      <x:c r="S144" s="10"/>
+      <x:c r="T144" s="10"/>
+      <x:c r="U144" s="10"/>
+      <x:c r="V144" s="10"/>
+      <x:c r="W144" s="10"/>
+      <x:c r="X144" s="10"/>
+      <x:c r="Y144" s="10"/>
+      <x:c r="Z144" s="10"/>
     </x:row>
     <x:row r="145" spans="1:26">
-      <x:c r="A145" s="12"/>
-      <x:c r="B145" s="12"/>
-      <x:c r="C145" s="12"/>
-      <x:c r="D145" s="12"/>
-      <x:c r="E145" s="12"/>
-      <x:c r="F145" s="12"/>
-      <x:c r="G145" s="12"/>
-      <x:c r="H145" s="12"/>
-      <x:c r="I145" s="12"/>
-      <x:c r="J145" s="12"/>
-      <x:c r="K145" s="12"/>
-      <x:c r="L145" s="12"/>
-      <x:c r="M145" s="12"/>
-      <x:c r="N145" s="12"/>
-      <x:c r="O145" s="12"/>
-      <x:c r="P145" s="12"/>
-      <x:c r="Q145" s="12"/>
-      <x:c r="R145" s="12"/>
-      <x:c r="S145" s="12"/>
-      <x:c r="T145" s="12"/>
-      <x:c r="U145" s="12"/>
-      <x:c r="V145" s="12"/>
-      <x:c r="W145" s="12"/>
-      <x:c r="X145" s="12"/>
-      <x:c r="Y145" s="12"/>
-      <x:c r="Z145" s="12"/>
+      <x:c r="A145" s="10"/>
+      <x:c r="B145" s="10"/>
+      <x:c r="C145" s="10"/>
+      <x:c r="D145" s="10"/>
+      <x:c r="E145" s="10"/>
+      <x:c r="F145" s="10"/>
+      <x:c r="G145" s="10"/>
+      <x:c r="H145" s="10"/>
+      <x:c r="I145" s="10"/>
+      <x:c r="J145" s="10"/>
+      <x:c r="K145" s="10"/>
+      <x:c r="L145" s="10"/>
+      <x:c r="M145" s="10"/>
+      <x:c r="N145" s="10"/>
+      <x:c r="O145" s="10"/>
+      <x:c r="P145" s="10"/>
+      <x:c r="Q145" s="10"/>
+      <x:c r="R145" s="10"/>
+      <x:c r="S145" s="10"/>
+      <x:c r="T145" s="10"/>
+      <x:c r="U145" s="10"/>
+      <x:c r="V145" s="10"/>
+      <x:c r="W145" s="10"/>
+      <x:c r="X145" s="10"/>
+      <x:c r="Y145" s="10"/>
+      <x:c r="Z145" s="10"/>
     </x:row>
     <x:row r="146" spans="1:26">
-      <x:c r="A146" s="12"/>
-      <x:c r="B146" s="12"/>
-      <x:c r="C146" s="12"/>
-      <x:c r="D146" s="12"/>
-      <x:c r="E146" s="12"/>
-      <x:c r="F146" s="12"/>
-      <x:c r="G146" s="12"/>
-      <x:c r="H146" s="12"/>
-      <x:c r="I146" s="12"/>
-      <x:c r="J146" s="12"/>
-      <x:c r="K146" s="12"/>
-      <x:c r="L146" s="12"/>
-      <x:c r="M146" s="12"/>
-      <x:c r="N146" s="12"/>
-      <x:c r="O146" s="12"/>
-      <x:c r="P146" s="12"/>
-      <x:c r="Q146" s="12"/>
-      <x:c r="R146" s="12"/>
-      <x:c r="S146" s="12"/>
-      <x:c r="T146" s="12"/>
-      <x:c r="U146" s="12"/>
-      <x:c r="V146" s="12"/>
-      <x:c r="W146" s="12"/>
-      <x:c r="X146" s="12"/>
-      <x:c r="Y146" s="12"/>
-      <x:c r="Z146" s="12"/>
+      <x:c r="A146" s="10"/>
+      <x:c r="B146" s="10"/>
+      <x:c r="C146" s="10"/>
+      <x:c r="D146" s="10"/>
+      <x:c r="E146" s="10"/>
+      <x:c r="F146" s="10"/>
+      <x:c r="G146" s="10"/>
+      <x:c r="H146" s="10"/>
+      <x:c r="I146" s="10"/>
+      <x:c r="J146" s="10"/>
+      <x:c r="K146" s="10"/>
+      <x:c r="L146" s="10"/>
+      <x:c r="M146" s="10"/>
+      <x:c r="N146" s="10"/>
+      <x:c r="O146" s="10"/>
+      <x:c r="P146" s="10"/>
+      <x:c r="Q146" s="10"/>
+      <x:c r="R146" s="10"/>
+      <x:c r="S146" s="10"/>
+      <x:c r="T146" s="10"/>
+      <x:c r="U146" s="10"/>
+      <x:c r="V146" s="10"/>
+      <x:c r="W146" s="10"/>
+      <x:c r="X146" s="10"/>
+      <x:c r="Y146" s="10"/>
+      <x:c r="Z146" s="10"/>
     </x:row>
     <x:row r="147" spans="1:26">
-      <x:c r="A147" s="12"/>
-      <x:c r="B147" s="12"/>
-      <x:c r="C147" s="12"/>
-      <x:c r="D147" s="12"/>
-      <x:c r="E147" s="12"/>
-      <x:c r="F147" s="12"/>
-      <x:c r="G147" s="12"/>
-      <x:c r="H147" s="12"/>
-      <x:c r="I147" s="12"/>
-      <x:c r="J147" s="12"/>
-      <x:c r="K147" s="12"/>
-      <x:c r="L147" s="12"/>
-      <x:c r="M147" s="12"/>
-      <x:c r="N147" s="12"/>
-      <x:c r="O147" s="12"/>
-      <x:c r="P147" s="12"/>
-      <x:c r="Q147" s="12"/>
-      <x:c r="R147" s="12"/>
-      <x:c r="S147" s="12"/>
-      <x:c r="T147" s="12"/>
-      <x:c r="U147" s="12"/>
-      <x:c r="V147" s="12"/>
-      <x:c r="W147" s="12"/>
-      <x:c r="X147" s="12"/>
-      <x:c r="Y147" s="12"/>
-      <x:c r="Z147" s="12"/>
+      <x:c r="A147" s="10"/>
+      <x:c r="B147" s="10"/>
+      <x:c r="C147" s="10"/>
+      <x:c r="D147" s="10"/>
+      <x:c r="E147" s="10"/>
+      <x:c r="F147" s="10"/>
+      <x:c r="G147" s="10"/>
+      <x:c r="H147" s="10"/>
+      <x:c r="I147" s="10"/>
+      <x:c r="J147" s="10"/>
+      <x:c r="K147" s="10"/>
+      <x:c r="L147" s="10"/>
+      <x:c r="M147" s="10"/>
+      <x:c r="N147" s="10"/>
+      <x:c r="O147" s="10"/>
+      <x:c r="P147" s="10"/>
+      <x:c r="Q147" s="10"/>
+      <x:c r="R147" s="10"/>
+      <x:c r="S147" s="10"/>
+      <x:c r="T147" s="10"/>
+      <x:c r="U147" s="10"/>
+      <x:c r="V147" s="10"/>
+      <x:c r="W147" s="10"/>
+      <x:c r="X147" s="10"/>
+      <x:c r="Y147" s="10"/>
+      <x:c r="Z147" s="10"/>
     </x:row>
     <x:row r="148" spans="1:26">
-      <x:c r="A148" s="12"/>
-      <x:c r="B148" s="12"/>
-      <x:c r="C148" s="12"/>
-      <x:c r="D148" s="12"/>
-      <x:c r="E148" s="12"/>
-      <x:c r="F148" s="12"/>
-      <x:c r="G148" s="12"/>
-      <x:c r="H148" s="12"/>
-      <x:c r="I148" s="12"/>
-      <x:c r="J148" s="12"/>
-      <x:c r="K148" s="12"/>
-      <x:c r="L148" s="12"/>
-      <x:c r="M148" s="12"/>
-      <x:c r="N148" s="12"/>
-      <x:c r="O148" s="12"/>
-      <x:c r="P148" s="12"/>
-      <x:c r="Q148" s="12"/>
-      <x:c r="R148" s="12"/>
-      <x:c r="S148" s="12"/>
-      <x:c r="T148" s="12"/>
-      <x:c r="U148" s="12"/>
-      <x:c r="V148" s="12"/>
-      <x:c r="W148" s="12"/>
-      <x:c r="X148" s="12"/>
-      <x:c r="Y148" s="12"/>
-      <x:c r="Z148" s="12"/>
+      <x:c r="A148" s="10"/>
+      <x:c r="B148" s="10"/>
+      <x:c r="C148" s="10"/>
+      <x:c r="D148" s="10"/>
+      <x:c r="E148" s="10"/>
+      <x:c r="F148" s="10"/>
+      <x:c r="G148" s="10"/>
+      <x:c r="H148" s="10"/>
+      <x:c r="I148" s="10"/>
+      <x:c r="J148" s="10"/>
+      <x:c r="K148" s="10"/>
+      <x:c r="L148" s="10"/>
+      <x:c r="M148" s="10"/>
+      <x:c r="N148" s="10"/>
+      <x:c r="O148" s="10"/>
+      <x:c r="P148" s="10"/>
+      <x:c r="Q148" s="10"/>
+      <x:c r="R148" s="10"/>
+      <x:c r="S148" s="10"/>
+      <x:c r="T148" s="10"/>
+      <x:c r="U148" s="10"/>
+      <x:c r="V148" s="10"/>
+      <x:c r="W148" s="10"/>
+      <x:c r="X148" s="10"/>
+      <x:c r="Y148" s="10"/>
+      <x:c r="Z148" s="10"/>
     </x:row>
     <x:row r="149" spans="1:26">
-      <x:c r="A149" s="12"/>
-      <x:c r="B149" s="12"/>
-      <x:c r="C149" s="12"/>
-      <x:c r="D149" s="12"/>
-      <x:c r="E149" s="12"/>
-      <x:c r="F149" s="12"/>
-      <x:c r="G149" s="12"/>
-      <x:c r="H149" s="12"/>
-      <x:c r="I149" s="12"/>
-      <x:c r="J149" s="12"/>
-      <x:c r="K149" s="12"/>
-      <x:c r="L149" s="12"/>
-      <x:c r="M149" s="12"/>
-      <x:c r="N149" s="12"/>
-      <x:c r="O149" s="12"/>
-      <x:c r="P149" s="12"/>
-      <x:c r="Q149" s="12"/>
-      <x:c r="R149" s="12"/>
-      <x:c r="S149" s="12"/>
-      <x:c r="T149" s="12"/>
-      <x:c r="U149" s="12"/>
-      <x:c r="V149" s="12"/>
-      <x:c r="W149" s="12"/>
-      <x:c r="X149" s="12"/>
-      <x:c r="Y149" s="12"/>
-      <x:c r="Z149" s="12"/>
+      <x:c r="A149" s="10"/>
+      <x:c r="B149" s="10"/>
+      <x:c r="C149" s="10"/>
+      <x:c r="D149" s="10"/>
+      <x:c r="E149" s="10"/>
+      <x:c r="F149" s="10"/>
+      <x:c r="G149" s="10"/>
+      <x:c r="H149" s="10"/>
+      <x:c r="I149" s="10"/>
+      <x:c r="J149" s="10"/>
+      <x:c r="K149" s="10"/>
+      <x:c r="L149" s="10"/>
+      <x:c r="M149" s="10"/>
+      <x:c r="N149" s="10"/>
+      <x:c r="O149" s="10"/>
+      <x:c r="P149" s="10"/>
+      <x:c r="Q149" s="10"/>
+      <x:c r="R149" s="10"/>
+      <x:c r="S149" s="10"/>
+      <x:c r="T149" s="10"/>
+      <x:c r="U149" s="10"/>
+      <x:c r="V149" s="10"/>
+      <x:c r="W149" s="10"/>
+      <x:c r="X149" s="10"/>
+      <x:c r="Y149" s="10"/>
+      <x:c r="Z149" s="10"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="11">
